--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-85430.93843700584</v>
+        <v>-50926.33754754927</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33654759.71765642</v>
+        <v>33654759.71765643</v>
       </c>
     </row>
     <row r="8">
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="D11" t="n">
         <v>418.1856318563247</v>
@@ -1379,10 +1381,10 @@
         <v>418.1856318563247</v>
       </c>
       <c r="F11" t="n">
-        <v>390.4694175453243</v>
+        <v>368.3379045390506</v>
       </c>
       <c r="G11" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1464,7 +1466,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H12" t="n">
-        <v>34.44698820166477</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>49.60563018141188</v>
+        <v>49.60563018141161</v>
       </c>
       <c r="T12" t="n">
         <v>126.0091317304331</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115.8308563593962</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>121.2394744252604</v>
       </c>
     </row>
     <row r="14">
@@ -1610,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E14" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>396.054118850051</v>
+        <v>116.3305169189688</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>393.704010615167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1734,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>49.60563018141188</v>
+        <v>49.60563018141183</v>
       </c>
       <c r="T15" t="n">
-        <v>126.0091317304332</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U15" t="n">
         <v>174.5263742585036</v>
@@ -1765,13 +1767,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>97.41557027201941</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1780,10 +1782,10 @@
         <v>163.3388892342509</v>
       </c>
       <c r="H16" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.8720855447433</v>
+        <v>186.4899489739826</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
       <c r="D17" t="n">
-        <v>385.7166363522987</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E17" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1898,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>23.32949336652084</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>49.60563018141206</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T18" t="n">
         <v>126.0091317304331</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>81.4214860241465</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6161358490523</v>
@@ -2065,10 +2067,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>162.8225906357931</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34.71323004965533</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>396.054118850051</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>135.2274368554002</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>49.60563018141206</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T21" t="n">
         <v>126.0091317304331</v>
@@ -2239,13 +2241,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.8720855447433</v>
+        <v>192.9878774776387</v>
       </c>
       <c r="U22" t="n">
-        <v>182.7891270505197</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>368.3379045390508</v>
+        <v>418.1856318563246</v>
       </c>
       <c r="C23" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563246</v>
       </c>
       <c r="D23" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>154.9120433266912</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2476,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>159.8085876055818</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.62536587822407</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6161358490523</v>
@@ -2555,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>368.3379045390508</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="G26" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>126.6598439315262</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2685,7 +2687,7 @@
         <v>49.60563018141188</v>
       </c>
       <c r="T27" t="n">
-        <v>126.0091317304332</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U27" t="n">
         <v>174.5263742585036</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H28" t="n">
         <v>133.1999654356588</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>153.6553765598836</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>147.1244401935911</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>368.3379045390508</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E29" t="n">
-        <v>48.85736879306067</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="F29" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="G29" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2849,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2886,7 +2888,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H30" t="n">
-        <v>34.44698820166521</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2950,19 +2952,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>78.52940736250704</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>80.11965011340732</v>
       </c>
       <c r="T31" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="C32" t="n">
-        <v>29.96044885662929</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>393.7040106151667</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3086,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3187,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.6468775146853</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>240.8720855447433</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>170.6468775146846</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="C35" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="D35" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="E35" t="n">
-        <v>418.1856318563248</v>
+        <v>368.3379045390506</v>
       </c>
       <c r="F35" t="n">
-        <v>368.3379045390509</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3360,7 +3362,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H36" t="n">
-        <v>34.44698820166521</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,25 +3426,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>147.0999786503595</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6161358490523</v>
+        <v>201.5465596766513</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E38" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="F38" t="n">
-        <v>418.1856318563248</v>
+        <v>368.3379045390509</v>
       </c>
       <c r="G38" t="n">
-        <v>98.9517851057211</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3633,7 +3635,7 @@
         <v>49.60563018141188</v>
       </c>
       <c r="T39" t="n">
-        <v>126.0091317304332</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U39" t="n">
         <v>174.5263742585036</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6161358490523</v>
+        <v>170.6468775146853</v>
       </c>
       <c r="V40" t="n">
-        <v>182.8269716931512</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3746,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>385.5548670018746</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>29.96044885662934</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3825,7 +3827,7 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E42" t="n">
-        <v>93.17921052631594</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F42" t="n">
         <v>82.55</v>
@@ -3901,16 +3903,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2.769388947267996</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>60.75051238802067</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>385.554867001875</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>385.5548670018752</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4071,7 +4073,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H45" t="n">
-        <v>34.44698820166521</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,19 +4137,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.8720855447433</v>
+        <v>123.5164527612911</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>98.27023338216685</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -5018,16 +5020,16 @@
         <v>1672.742527425299</v>
       </c>
       <c r="C11" t="n">
-        <v>1672.742527425299</v>
+        <v>1250.332798277496</v>
       </c>
       <c r="D11" t="n">
-        <v>1250.332798277496</v>
+        <v>827.9230691296932</v>
       </c>
       <c r="E11" t="n">
-        <v>827.9230691296932</v>
+        <v>405.5133399818904</v>
       </c>
       <c r="F11" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G11" t="n">
         <v>33.45485054850598</v>
@@ -5036,19 +5038,19 @@
         <v>33.45485054850598</v>
       </c>
       <c r="I11" t="n">
-        <v>83.79828774524256</v>
+        <v>83.79828774524184</v>
       </c>
       <c r="J11" t="n">
-        <v>195.5292216073331</v>
+        <v>195.5292216073323</v>
       </c>
       <c r="K11" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099026</v>
       </c>
       <c r="L11" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968683</v>
       </c>
       <c r="M11" t="n">
-        <v>801.8833353847203</v>
+        <v>801.8833353847199</v>
       </c>
       <c r="N11" t="n">
         <v>1036.7784573317</v>
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>531.9672238352455</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C12" t="n">
-        <v>425.5107626718877</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D12" t="n">
-        <v>330.420473818441</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E12" t="n">
-        <v>236.3000591453947</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F12" t="n">
-        <v>152.9162207615563</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G12" t="n">
-        <v>68.24978812594514</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H12" t="n">
         <v>33.45485054850598</v>
       </c>
       <c r="I12" t="n">
-        <v>83.76937108752901</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J12" t="n">
-        <v>150.315549862265</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K12" t="n">
-        <v>264.0535687076973</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L12" t="n">
-        <v>416.9883711887013</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M12" t="n">
-        <v>595.4560722154179</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N12" t="n">
-        <v>778.6472822410931</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O12" t="n">
-        <v>946.2314501067032</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P12" t="n">
-        <v>1097.834127233838</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q12" t="n">
         <v>1511.8379027716</v>
@@ -5157,13 +5159,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W12" t="n">
-        <v>934.6243398969079</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X12" t="n">
-        <v>779.7569041357879</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y12" t="n">
-        <v>653.2711249150086</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>718.3596126512649</v>
+        <v>547.7123931078187</v>
       </c>
       <c r="C13" t="n">
-        <v>545.7979011344898</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="D13" t="n">
-        <v>379.9199083360126</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="E13" t="n">
-        <v>210.1619045867498</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F13" t="n">
-        <v>33.45485054850598</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G13" t="n">
         <v>33.45485054850598</v>
@@ -5197,25 +5199,25 @@
         <v>33.45485054850598</v>
       </c>
       <c r="J13" t="n">
-        <v>75.20378455015356</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K13" t="n">
-        <v>143.8101078806224</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L13" t="n">
-        <v>231.6025814132114</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M13" t="n">
-        <v>375.7243943651136</v>
+        <v>861.7096435212251</v>
       </c>
       <c r="N13" t="n">
-        <v>789.728169902875</v>
+        <v>952.0735121144787</v>
       </c>
       <c r="O13" t="n">
-        <v>1203.731945440637</v>
+        <v>1035.539170576304</v>
       </c>
       <c r="P13" t="n">
-        <v>1617.735720978398</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q13" t="n">
         <v>1667.182735391305</v>
@@ -5236,13 +5238,13 @@
         <v>1107.386882074464</v>
       </c>
       <c r="W13" t="n">
-        <v>835.360477660756</v>
+        <v>1107.386882074464</v>
       </c>
       <c r="X13" t="n">
-        <v>835.360477660756</v>
+        <v>861.9951274078769</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.360477660756</v>
+        <v>739.5310118268058</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>855.9192452014109</v>
+        <v>848.7446094156431</v>
       </c>
       <c r="C14" t="n">
-        <v>855.9192452014109</v>
+        <v>848.7446094156431</v>
       </c>
       <c r="D14" t="n">
-        <v>855.9192452014109</v>
+        <v>426.3348802678403</v>
       </c>
       <c r="E14" t="n">
-        <v>433.509516053608</v>
+        <v>426.3348802678403</v>
       </c>
       <c r="F14" t="n">
-        <v>433.509516053608</v>
+        <v>426.3348802678403</v>
       </c>
       <c r="G14" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H14" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I14" t="n">
-        <v>83.79828774524199</v>
+        <v>83.79828774524256</v>
       </c>
       <c r="J14" t="n">
-        <v>195.5292216073326</v>
+        <v>195.5292216073331</v>
       </c>
       <c r="K14" t="n">
-        <v>362.9849282099029</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L14" t="n">
-        <v>570.7285396968687</v>
+        <v>570.728539696869</v>
       </c>
       <c r="M14" t="n">
-        <v>801.8833353847202</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N14" t="n">
         <v>1036.7784573317</v>
@@ -5297,7 +5299,7 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q14" t="n">
-        <v>1590.048899840628</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R14" t="n">
         <v>1672.742527425299</v>
@@ -5315,13 +5317,13 @@
         <v>1672.742527425299</v>
       </c>
       <c r="W14" t="n">
-        <v>1672.742527425299</v>
+        <v>1267.887072836332</v>
       </c>
       <c r="X14" t="n">
-        <v>1253.60006400461</v>
+        <v>848.7446094156431</v>
       </c>
       <c r="Y14" t="n">
-        <v>855.9192452014109</v>
+        <v>848.7446094156431</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H15" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I15" t="n">
-        <v>83.76937108752902</v>
+        <v>83.76937108752901</v>
       </c>
       <c r="J15" t="n">
-        <v>167.4171577960268</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K15" t="n">
-        <v>281.1551766414591</v>
+        <v>605.2485493631992</v>
       </c>
       <c r="L15" t="n">
-        <v>434.0899791224632</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M15" t="n">
-        <v>612.5576801491798</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N15" t="n">
-        <v>795.7488901748552</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O15" t="n">
-        <v>963.3330580404652</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P15" t="n">
-        <v>1097.834127233839</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q15" t="n">
         <v>1511.8379027716</v>
@@ -5410,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>678.6368592491522</v>
+        <v>547.7123931078187</v>
       </c>
       <c r="C16" t="n">
-        <v>678.6368592491522</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="D16" t="n">
-        <v>678.6368592491522</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="E16" t="n">
-        <v>580.2372933178194</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F16" t="n">
-        <v>403.5302392795757</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G16" t="n">
-        <v>238.5414622752818</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H16" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I16" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J16" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K16" t="n">
-        <v>143.8101078806224</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L16" t="n">
-        <v>231.6025814132115</v>
+        <v>769.1447895942085</v>
       </c>
       <c r="M16" t="n">
-        <v>538.0697365767178</v>
+        <v>861.7096435212253</v>
       </c>
       <c r="N16" t="n">
-        <v>952.0735121144794</v>
+        <v>952.0735121144789</v>
       </c>
       <c r="O16" t="n">
         <v>1035.539170576305</v>
@@ -5464,22 +5466,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T16" t="n">
-        <v>1429.437390511417</v>
+        <v>1484.368841592993</v>
       </c>
       <c r="U16" t="n">
-        <v>1429.437390511417</v>
+        <v>1484.368841592993</v>
       </c>
       <c r="V16" t="n">
-        <v>1142.481882381848</v>
+        <v>1484.368841592993</v>
       </c>
       <c r="W16" t="n">
-        <v>870.4554779681393</v>
+        <v>1212.342437179285</v>
       </c>
       <c r="X16" t="n">
-        <v>870.4554779681393</v>
+        <v>966.9506825126975</v>
       </c>
       <c r="Y16" t="n">
-        <v>870.4554779681393</v>
+        <v>739.5310118268058</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>845.4773436885298</v>
+        <v>878.2743088441118</v>
       </c>
       <c r="C17" t="n">
-        <v>845.4773436885298</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="D17" t="n">
-        <v>455.8645796963089</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E17" t="n">
         <v>33.45485054850599</v>
@@ -5510,19 +5512,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I17" t="n">
-        <v>83.79828774524199</v>
+        <v>83.79828774524245</v>
       </c>
       <c r="J17" t="n">
-        <v>195.5292216073326</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K17" t="n">
-        <v>362.9849282099029</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L17" t="n">
-        <v>570.7285396968687</v>
+        <v>570.728539696869</v>
       </c>
       <c r="M17" t="n">
-        <v>801.8833353847202</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N17" t="n">
         <v>1036.7784573317</v>
@@ -5534,7 +5536,7 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q17" t="n">
-        <v>1590.048899840628</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R17" t="n">
         <v>1672.742527425299</v>
@@ -5546,19 +5548,19 @@
         <v>1672.742527425299</v>
       </c>
       <c r="U17" t="n">
-        <v>1672.742527425299</v>
+        <v>1649.177382610632</v>
       </c>
       <c r="V17" t="n">
-        <v>1672.742527425299</v>
+        <v>1286.560432544458</v>
       </c>
       <c r="W17" t="n">
-        <v>1267.887072836333</v>
+        <v>1286.560432544458</v>
       </c>
       <c r="X17" t="n">
-        <v>1267.887072836333</v>
+        <v>1286.560432544458</v>
       </c>
       <c r="Y17" t="n">
-        <v>1267.887072836333</v>
+        <v>878.2743088441118</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C18" t="n">
-        <v>425.5107626718881</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D18" t="n">
         <v>330.4204738184413</v>
@@ -5580,7 +5582,7 @@
         <v>236.300059145395</v>
       </c>
       <c r="F18" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G18" t="n">
         <v>68.24978812594551</v>
@@ -5592,25 +5594,25 @@
         <v>83.76937108752902</v>
       </c>
       <c r="J18" t="n">
-        <v>167.4171577960268</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K18" t="n">
-        <v>281.1551766414591</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L18" t="n">
-        <v>434.0899791224632</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M18" t="n">
-        <v>612.5576801491798</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N18" t="n">
-        <v>795.7488901748552</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O18" t="n">
-        <v>963.3330580404652</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P18" t="n">
-        <v>1097.834127233839</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q18" t="n">
         <v>1511.8379027716</v>
@@ -5634,10 +5636,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X18" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y18" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.45485054850599</v>
+        <v>416.1221882558776</v>
       </c>
       <c r="C19" t="n">
-        <v>33.45485054850599</v>
+        <v>416.1221882558776</v>
       </c>
       <c r="D19" t="n">
-        <v>33.45485054850599</v>
+        <v>250.2441954574003</v>
       </c>
       <c r="E19" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="F19" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="G19" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H19" t="n">
         <v>33.45485054850599</v>
@@ -5671,19 +5673,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J19" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K19" t="n">
-        <v>418.568562451758</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L19" t="n">
-        <v>769.1447895942089</v>
+        <v>769.1447895942088</v>
       </c>
       <c r="M19" t="n">
-        <v>861.7096435212255</v>
+        <v>861.7096435212254</v>
       </c>
       <c r="N19" t="n">
-        <v>952.0735121144794</v>
+        <v>952.0735121144792</v>
       </c>
       <c r="O19" t="n">
         <v>1035.539170576305</v>
@@ -5698,25 +5700,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S19" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T19" t="n">
-        <v>1280.695918248114</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U19" t="n">
-        <v>1002.295781026849</v>
+        <v>1394.342390204034</v>
       </c>
       <c r="V19" t="n">
-        <v>715.3402728972799</v>
+        <v>1107.386882074465</v>
       </c>
       <c r="W19" t="n">
-        <v>443.3138684835714</v>
+        <v>835.3604776607565</v>
       </c>
       <c r="X19" t="n">
-        <v>197.9221138169839</v>
+        <v>835.3604776607565</v>
       </c>
       <c r="Y19" t="n">
-        <v>33.45485054850599</v>
+        <v>607.9408069748647</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>468.5733847906336</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="C20" t="n">
-        <v>468.5733847906336</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D20" t="n">
-        <v>433.509516053608</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E20" t="n">
-        <v>433.509516053608</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F20" t="n">
-        <v>433.509516053608</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G20" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H20" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I20" t="n">
-        <v>83.79828774524188</v>
+        <v>83.79828774524199</v>
       </c>
       <c r="J20" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K20" t="n">
         <v>362.9849282099028</v>
@@ -5783,19 +5785,19 @@
         <v>1672.742527425299</v>
       </c>
       <c r="U20" t="n">
-        <v>1672.742527425299</v>
+        <v>1536.149156864289</v>
       </c>
       <c r="V20" t="n">
-        <v>1310.125577359126</v>
+        <v>1536.149156864289</v>
       </c>
       <c r="W20" t="n">
-        <v>1310.125577359126</v>
+        <v>1131.293702275322</v>
       </c>
       <c r="X20" t="n">
-        <v>890.9831139384365</v>
+        <v>1131.293702275322</v>
       </c>
       <c r="Y20" t="n">
-        <v>890.9831139384365</v>
+        <v>1131.293702275322</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5825,34 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H21" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I21" t="n">
-        <v>83.76937108752902</v>
+        <v>57.70569792707141</v>
       </c>
       <c r="J21" t="n">
-        <v>150.3155498622651</v>
+        <v>124.2518767018075</v>
       </c>
       <c r="K21" t="n">
-        <v>264.0535687076974</v>
+        <v>237.9898955472397</v>
       </c>
       <c r="L21" t="n">
-        <v>416.9883711887014</v>
+        <v>390.9246980282438</v>
       </c>
       <c r="M21" t="n">
-        <v>595.4560722154181</v>
+        <v>729.7304582435193</v>
       </c>
       <c r="N21" t="n">
-        <v>778.6472822410934</v>
+        <v>912.9216682691947</v>
       </c>
       <c r="O21" t="n">
-        <v>946.2314501067035</v>
+        <v>1080.505836134805</v>
       </c>
       <c r="P21" t="n">
-        <v>1097.834127233839</v>
+        <v>1215.006905328178</v>
       </c>
       <c r="Q21" t="n">
-        <v>1511.8379027716</v>
+        <v>1629.01068086594</v>
       </c>
       <c r="R21" t="n">
         <v>1672.742527425299</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>371.8945548637583</v>
+        <v>203.2128542977687</v>
       </c>
       <c r="C22" t="n">
-        <v>199.3328433469833</v>
+        <v>203.2128542977687</v>
       </c>
       <c r="D22" t="n">
-        <v>33.45485054850599</v>
+        <v>203.2128542977687</v>
       </c>
       <c r="E22" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="F22" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G22" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H22" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I22" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J22" t="n">
         <v>161.7834697148434</v>
@@ -5914,13 +5916,13 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L22" t="n">
-        <v>769.1447895942089</v>
+        <v>769.1447895942085</v>
       </c>
       <c r="M22" t="n">
-        <v>861.7096435212255</v>
+        <v>861.7096435212253</v>
       </c>
       <c r="N22" t="n">
-        <v>952.0735121144794</v>
+        <v>952.0735121144789</v>
       </c>
       <c r="O22" t="n">
         <v>1035.539170576305</v>
@@ -5935,25 +5937,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S22" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T22" t="n">
-        <v>1280.695918248114</v>
+        <v>1477.805277447886</v>
       </c>
       <c r="U22" t="n">
-        <v>1096.060436378903</v>
+        <v>1199.405140226621</v>
       </c>
       <c r="V22" t="n">
-        <v>809.1049282493329</v>
+        <v>912.4496320970518</v>
       </c>
       <c r="W22" t="n">
-        <v>809.1049282493329</v>
+        <v>640.4232276833434</v>
       </c>
       <c r="X22" t="n">
-        <v>563.7131735827454</v>
+        <v>395.0314730167559</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.7131735827454</v>
+        <v>395.0314730167559</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1300.684037991915</v>
+        <v>731.2390367702199</v>
       </c>
       <c r="C23" t="n">
-        <v>878.2743088441118</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="D23" t="n">
-        <v>455.8645796963089</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="E23" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="F23" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="G23" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H23" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="I23" t="n">
-        <v>83.79828774524188</v>
+        <v>83.79828774524184</v>
       </c>
       <c r="J23" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073323</v>
       </c>
       <c r="K23" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099026</v>
       </c>
       <c r="L23" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968682</v>
       </c>
       <c r="M23" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847198</v>
       </c>
       <c r="N23" t="n">
-        <v>1036.7784573317</v>
+        <v>1036.778457331699</v>
       </c>
       <c r="O23" t="n">
-        <v>1258.583260144776</v>
+        <v>1258.583260144775</v>
       </c>
       <c r="P23" t="n">
         <v>1447.888527710259</v>
@@ -6011,28 +6013,28 @@
         <v>1590.048899840627</v>
       </c>
       <c r="R23" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.742527425298</v>
       </c>
       <c r="S23" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.742527425298</v>
       </c>
       <c r="T23" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.742527425298</v>
       </c>
       <c r="U23" t="n">
-        <v>1672.742527425299</v>
+        <v>1516.265715984196</v>
       </c>
       <c r="V23" t="n">
-        <v>1672.742527425299</v>
+        <v>1153.648765918022</v>
       </c>
       <c r="W23" t="n">
-        <v>1672.742527425299</v>
+        <v>1153.648765918022</v>
       </c>
       <c r="X23" t="n">
-        <v>1672.742527425299</v>
+        <v>1153.648765918022</v>
       </c>
       <c r="Y23" t="n">
-        <v>1672.742527425299</v>
+        <v>1153.648765918022</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>531.9672238352457</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C24" t="n">
-        <v>425.510762671888</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D24" t="n">
-        <v>330.4204738184412</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E24" t="n">
-        <v>236.3000591453949</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F24" t="n">
         <v>152.9162207615566</v>
       </c>
       <c r="G24" t="n">
-        <v>68.24978812594554</v>
+        <v>68.2497881259455</v>
       </c>
       <c r="H24" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="I24" t="n">
-        <v>57.70569792707142</v>
+        <v>83.769371087529</v>
       </c>
       <c r="J24" t="n">
-        <v>124.2518767018075</v>
+        <v>474.8738748284773</v>
       </c>
       <c r="K24" t="n">
-        <v>237.9898955472398</v>
+        <v>605.2485493631992</v>
       </c>
       <c r="L24" t="n">
-        <v>390.9246980282439</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M24" t="n">
-        <v>569.3923990549604</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N24" t="n">
-        <v>752.5836090806357</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O24" t="n">
-        <v>920.1677769462458</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P24" t="n">
-        <v>1097.834127233839</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q24" t="n">
         <v>1511.8379027716</v>
@@ -6108,10 +6110,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X24" t="n">
-        <v>779.7569041357881</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y24" t="n">
-        <v>653.2711249150088</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>364.6356700609827</v>
+        <v>607.9408069748636</v>
       </c>
       <c r="C25" t="n">
-        <v>364.6356700609827</v>
+        <v>435.3790954580885</v>
       </c>
       <c r="D25" t="n">
-        <v>203.2128542977687</v>
+        <v>269.5011026596112</v>
       </c>
       <c r="E25" t="n">
-        <v>33.45485054850599</v>
+        <v>99.74309891034846</v>
       </c>
       <c r="F25" t="n">
-        <v>33.45485054850599</v>
+        <v>99.74309891034846</v>
       </c>
       <c r="G25" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="H25" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="I25" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="J25" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015356</v>
       </c>
       <c r="K25" t="n">
-        <v>505.1482476164479</v>
+        <v>192.7956718448431</v>
       </c>
       <c r="L25" t="n">
-        <v>769.1447895942089</v>
+        <v>606.7994473826044</v>
       </c>
       <c r="M25" t="n">
-        <v>861.7096435212255</v>
+        <v>699.3643013096212</v>
       </c>
       <c r="N25" t="n">
-        <v>952.0735121144794</v>
+        <v>789.7281699028748</v>
       </c>
       <c r="O25" t="n">
-        <v>1035.539170576305</v>
+        <v>1203.731945440636</v>
       </c>
       <c r="P25" t="n">
-        <v>1449.542946114066</v>
+        <v>1617.735720978397</v>
       </c>
       <c r="Q25" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391304</v>
       </c>
       <c r="R25" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.742527425298</v>
       </c>
       <c r="S25" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.742527425298</v>
       </c>
       <c r="T25" t="n">
-        <v>1429.437390511417</v>
+        <v>1672.742527425298</v>
       </c>
       <c r="U25" t="n">
-        <v>1151.037253290152</v>
+        <v>1394.342390204033</v>
       </c>
       <c r="V25" t="n">
-        <v>864.0817451605828</v>
+        <v>1107.386882074464</v>
       </c>
       <c r="W25" t="n">
-        <v>592.0553407468744</v>
+        <v>835.3604776607554</v>
       </c>
       <c r="X25" t="n">
-        <v>592.0553407468744</v>
+        <v>835.3604776607554</v>
       </c>
       <c r="Y25" t="n">
-        <v>364.6356700609827</v>
+        <v>607.9408069748636</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>708.8839731275193</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="C26" t="n">
-        <v>708.8839731275193</v>
+        <v>1300.684037991914</v>
       </c>
       <c r="D26" t="n">
-        <v>708.8839731275193</v>
+        <v>878.2743088441117</v>
       </c>
       <c r="E26" t="n">
-        <v>708.8839731275193</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="F26" t="n">
-        <v>708.8839731275193</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G26" t="n">
-        <v>308.8293076224172</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H26" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I26" t="n">
-        <v>83.79828774524188</v>
+        <v>83.79828774524233</v>
       </c>
       <c r="J26" t="n">
-        <v>195.5292216073324</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K26" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L26" t="n">
-        <v>570.7285396968684</v>
+        <v>570.728539696869</v>
       </c>
       <c r="M26" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N26" t="n">
         <v>1036.7784573317</v>
@@ -6254,22 +6256,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T26" t="n">
-        <v>1458.555008901416</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U26" t="n">
-        <v>1199.440159488164</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V26" t="n">
-        <v>836.8232094219902</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="W26" t="n">
-        <v>836.8232094219902</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="X26" t="n">
-        <v>708.8839731275193</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="Y26" t="n">
-        <v>708.8839731275193</v>
+        <v>1672.742527425299</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6299,31 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H27" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I27" t="n">
-        <v>57.70569792707142</v>
+        <v>83.76937108752901</v>
       </c>
       <c r="J27" t="n">
-        <v>124.2518767018075</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K27" t="n">
-        <v>237.9898955472398</v>
+        <v>264.0535687076973</v>
       </c>
       <c r="L27" t="n">
-        <v>390.9246980282439</v>
+        <v>416.9883711887013</v>
       </c>
       <c r="M27" t="n">
-        <v>569.3923990549604</v>
+        <v>595.4560722154179</v>
       </c>
       <c r="N27" t="n">
-        <v>752.5836090806357</v>
+        <v>1009.459847753179</v>
       </c>
       <c r="O27" t="n">
-        <v>920.1677769462458</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P27" t="n">
-        <v>1097.834127233839</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q27" t="n">
         <v>1511.8379027716</v>
@@ -6358,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>852.9050322832435</v>
+        <v>1088.435001382335</v>
       </c>
       <c r="C28" t="n">
-        <v>680.3433207664684</v>
+        <v>915.8732898655595</v>
       </c>
       <c r="D28" t="n">
-        <v>514.4653279679911</v>
+        <v>749.9952970670822</v>
       </c>
       <c r="E28" t="n">
-        <v>344.7073242187284</v>
+        <v>580.2372933178194</v>
       </c>
       <c r="F28" t="n">
-        <v>168.0002701804846</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="G28" t="n">
-        <v>168.0002701804846</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H28" t="n">
-        <v>33.45485054850599</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I28" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J28" t="n">
-        <v>75.20378455015359</v>
+        <v>75.20378455015356</v>
       </c>
       <c r="K28" t="n">
-        <v>418.568562451758</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L28" t="n">
-        <v>832.5723379895196</v>
+        <v>557.8138834183839</v>
       </c>
       <c r="M28" t="n">
-        <v>925.1371919165364</v>
+        <v>971.8176589561454</v>
       </c>
       <c r="N28" t="n">
-        <v>1015.50106050979</v>
+        <v>1385.821434493907</v>
       </c>
       <c r="O28" t="n">
-        <v>1098.966718971616</v>
+        <v>1546.316431026242</v>
       </c>
       <c r="P28" t="n">
-        <v>1449.542946114066</v>
+        <v>1617.735720978398</v>
       </c>
       <c r="Q28" t="n">
         <v>1667.182735391305</v>
@@ -6409,25 +6411,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S28" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T28" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U28" t="n">
-        <v>1517.53507635471</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="V28" t="n">
-        <v>1517.53507635471</v>
+        <v>1237.045547032427</v>
       </c>
       <c r="W28" t="n">
-        <v>1517.53507635471</v>
+        <v>1088.435001382335</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.143321688122</v>
+        <v>1088.435001382335</v>
       </c>
       <c r="Y28" t="n">
-        <v>1044.723651002231</v>
+        <v>1088.435001382335</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>905.2701227701591</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="C29" t="n">
-        <v>905.2701227701591</v>
+        <v>1300.684037991914</v>
       </c>
       <c r="D29" t="n">
-        <v>905.2701227701591</v>
+        <v>878.2743088441117</v>
       </c>
       <c r="E29" t="n">
-        <v>855.9192452014109</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="F29" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G29" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H29" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I29" t="n">
-        <v>83.79828774524188</v>
+        <v>83.79828774524256</v>
       </c>
       <c r="J29" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073331</v>
       </c>
       <c r="K29" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L29" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968691</v>
       </c>
       <c r="M29" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847207</v>
       </c>
       <c r="N29" t="n">
         <v>1036.7784573317</v>
@@ -6497,16 +6499,16 @@
         <v>1672.742527425299</v>
       </c>
       <c r="V29" t="n">
-        <v>1310.125577359126</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="W29" t="n">
-        <v>905.2701227701591</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="X29" t="n">
-        <v>905.2701227701591</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="Y29" t="n">
-        <v>905.2701227701591</v>
+        <v>1672.742527425299</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>531.9672238352459</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C30" t="n">
-        <v>425.5107626718882</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D30" t="n">
-        <v>330.4204738184415</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E30" t="n">
-        <v>236.3000591453952</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F30" t="n">
-        <v>152.9162207615568</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G30" t="n">
-        <v>68.2497881259456</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H30" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I30" t="n">
-        <v>83.76937108752902</v>
+        <v>83.76937108752901</v>
       </c>
       <c r="J30" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K30" t="n">
-        <v>605.2485493631991</v>
+        <v>605.2485493631992</v>
       </c>
       <c r="L30" t="n">
         <v>758.1833518442032</v>
@@ -6558,7 +6560,7 @@
         <v>1287.426430762205</v>
       </c>
       <c r="P30" t="n">
-        <v>1421.927499955579</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q30" t="n">
         <v>1511.8379027716</v>
@@ -6570,7 +6572,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T30" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U30" t="n">
         <v>1319.064612101715</v>
@@ -6579,13 +6581,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W30" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X30" t="n">
-        <v>779.7569041357883</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y30" t="n">
-        <v>653.2711249150091</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>451.2171885632604</v>
+        <v>368.2016313020625</v>
       </c>
       <c r="C31" t="n">
-        <v>278.6554770464854</v>
+        <v>368.2016313020625</v>
       </c>
       <c r="D31" t="n">
-        <v>112.7774842480081</v>
+        <v>368.2016313020625</v>
       </c>
       <c r="E31" t="n">
-        <v>33.45485054850599</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="F31" t="n">
-        <v>33.45485054850599</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G31" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H31" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I31" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J31" t="n">
         <v>161.7834697148434</v>
@@ -6625,19 +6627,19 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L31" t="n">
-        <v>592.940721149037</v>
+        <v>606.7994473826049</v>
       </c>
       <c r="M31" t="n">
-        <v>1006.944496686799</v>
+        <v>699.3643013096216</v>
       </c>
       <c r="N31" t="n">
-        <v>1097.308365280052</v>
+        <v>789.7281699028753</v>
       </c>
       <c r="O31" t="n">
-        <v>1378.12365616191</v>
+        <v>1203.731945440637</v>
       </c>
       <c r="P31" t="n">
-        <v>1449.542946114066</v>
+        <v>1617.735720978398</v>
       </c>
       <c r="Q31" t="n">
         <v>1667.182735391305</v>
@@ -6646,25 +6648,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S31" t="n">
-        <v>1672.742527425299</v>
+        <v>1591.813587916807</v>
       </c>
       <c r="T31" t="n">
-        <v>1429.437390511417</v>
+        <v>1591.813587916807</v>
       </c>
       <c r="U31" t="n">
-        <v>1429.437390511417</v>
+        <v>1591.813587916807</v>
       </c>
       <c r="V31" t="n">
-        <v>1142.481882381848</v>
+        <v>1304.858079787237</v>
       </c>
       <c r="W31" t="n">
-        <v>870.4554779681393</v>
+        <v>1032.831675373529</v>
       </c>
       <c r="X31" t="n">
-        <v>870.4554779681393</v>
+        <v>787.4399207069414</v>
       </c>
       <c r="Y31" t="n">
-        <v>643.0358072822476</v>
+        <v>560.0202500210496</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>63.71793020166689</v>
+        <v>831.1903348568068</v>
       </c>
       <c r="C32" t="n">
-        <v>33.45485054850599</v>
+        <v>831.1903348568068</v>
       </c>
       <c r="D32" t="n">
-        <v>33.45485054850599</v>
+        <v>831.1903348568068</v>
       </c>
       <c r="E32" t="n">
-        <v>33.45485054850599</v>
+        <v>831.1903348568068</v>
       </c>
       <c r="F32" t="n">
-        <v>33.45485054850599</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G32" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="H32" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="I32" t="n">
-        <v>83.79828774524188</v>
+        <v>83.79828774524199</v>
       </c>
       <c r="J32" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K32" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L32" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968686</v>
       </c>
       <c r="M32" t="n">
         <v>801.8833353847201</v>
@@ -6734,16 +6736,16 @@
         <v>1672.742527425299</v>
       </c>
       <c r="V32" t="n">
-        <v>1310.125577359126</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="W32" t="n">
-        <v>905.2701227701591</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="X32" t="n">
-        <v>486.1276593494698</v>
+        <v>1253.60006400461</v>
       </c>
       <c r="Y32" t="n">
-        <v>486.1276593494698</v>
+        <v>1253.60006400461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>531.9672238352457</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C33" t="n">
-        <v>425.510762671888</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D33" t="n">
-        <v>330.4204738184412</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E33" t="n">
-        <v>236.3000591453949</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F33" t="n">
-        <v>152.9162207615566</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G33" t="n">
-        <v>68.24978812594554</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H33" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="I33" t="n">
-        <v>83.76937108752902</v>
+        <v>83.769371087529</v>
       </c>
       <c r="J33" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K33" t="n">
-        <v>605.2485493631991</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L33" t="n">
-        <v>758.1833518442032</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M33" t="n">
-        <v>936.6510528709197</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N33" t="n">
-        <v>1119.842262896595</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O33" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P33" t="n">
-        <v>1421.927499955579</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q33" t="n">
         <v>1511.8379027716</v>
@@ -6819,10 +6821,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X33" t="n">
-        <v>779.7569041357881</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y33" t="n">
-        <v>653.2711249150088</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>205.825433896673</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="C34" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="D34" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="E34" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="F34" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="G34" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="H34" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="I34" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="J34" t="n">
-        <v>75.20378455015359</v>
+        <v>75.20378455015356</v>
       </c>
       <c r="K34" t="n">
         <v>143.8101078806224</v>
@@ -6865,16 +6867,16 @@
         <v>231.6025814132115</v>
       </c>
       <c r="M34" t="n">
-        <v>645.6063569509731</v>
+        <v>375.7243943651138</v>
       </c>
       <c r="N34" t="n">
-        <v>1059.610132488735</v>
+        <v>789.7281699028752</v>
       </c>
       <c r="O34" t="n">
-        <v>1473.613908026496</v>
+        <v>1203.731945440637</v>
       </c>
       <c r="P34" t="n">
-        <v>1617.735720978399</v>
+        <v>1617.735720978398</v>
       </c>
       <c r="Q34" t="n">
         <v>1667.182735391305</v>
@@ -6889,19 +6891,19 @@
         <v>1429.437390511417</v>
       </c>
       <c r="U34" t="n">
-        <v>1429.437390511417</v>
+        <v>1257.06680716325</v>
       </c>
       <c r="V34" t="n">
-        <v>1142.481882381848</v>
+        <v>970.1112990336808</v>
       </c>
       <c r="W34" t="n">
-        <v>870.4554779681393</v>
+        <v>698.0848946199724</v>
       </c>
       <c r="X34" t="n">
-        <v>625.0637233015518</v>
+        <v>452.6931399533848</v>
       </c>
       <c r="Y34" t="n">
-        <v>397.6440526156601</v>
+        <v>225.2734692674931</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1672.742527425299</v>
+        <v>1250.332798277496</v>
       </c>
       <c r="C35" t="n">
-        <v>1250.332798277497</v>
+        <v>827.9230691296932</v>
       </c>
       <c r="D35" t="n">
-        <v>827.9230691296937</v>
+        <v>405.5133399818904</v>
       </c>
       <c r="E35" t="n">
-        <v>405.5133399818907</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="F35" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G35" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H35" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I35" t="n">
-        <v>83.79828774524186</v>
+        <v>83.79828774524185</v>
       </c>
       <c r="J35" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K35" t="n">
-        <v>362.9849282099027</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L35" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968686</v>
       </c>
       <c r="M35" t="n">
-        <v>801.88333538472</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N35" t="n">
         <v>1036.7784573317</v>
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>531.9672238352459</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C36" t="n">
-        <v>425.5107626718882</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D36" t="n">
-        <v>330.4204738184415</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E36" t="n">
-        <v>236.3000591453952</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F36" t="n">
-        <v>152.9162207615568</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G36" t="n">
-        <v>68.2497881259456</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H36" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I36" t="n">
         <v>83.76937108752902</v>
       </c>
       <c r="J36" t="n">
-        <v>150.3155498622651</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K36" t="n">
-        <v>264.0535687076974</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L36" t="n">
-        <v>678.0573442454589</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M36" t="n">
-        <v>856.5250452721755</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N36" t="n">
-        <v>1039.716255297851</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O36" t="n">
-        <v>1207.300423163461</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P36" t="n">
-        <v>1341.801492356835</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q36" t="n">
         <v>1511.8379027716</v>
@@ -7044,7 +7046,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T36" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U36" t="n">
         <v>1319.064612101715</v>
@@ -7053,13 +7055,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W36" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X36" t="n">
-        <v>779.7569041357883</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y36" t="n">
-        <v>653.2711249150091</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="37">
@@ -7069,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>729.712346132568</v>
+        <v>718.3596126512649</v>
       </c>
       <c r="C37" t="n">
-        <v>729.712346132568</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="D37" t="n">
-        <v>563.8343533340907</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E37" t="n">
-        <v>563.8343533340907</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F37" t="n">
-        <v>387.1272992958469</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G37" t="n">
-        <v>238.5414622752818</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H37" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I37" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J37" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015357</v>
       </c>
       <c r="K37" t="n">
-        <v>505.1482476164479</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L37" t="n">
-        <v>919.1520231542094</v>
+        <v>285.3605257718598</v>
       </c>
       <c r="M37" t="n">
-        <v>1041.948786895227</v>
+        <v>699.3643013096213</v>
       </c>
       <c r="N37" t="n">
-        <v>1132.312655488481</v>
+        <v>789.728169902875</v>
       </c>
       <c r="O37" t="n">
-        <v>1546.316431026242</v>
+        <v>1203.731945440637</v>
       </c>
       <c r="P37" t="n">
-        <v>1617.735720978399</v>
+        <v>1617.735720978398</v>
       </c>
       <c r="Q37" t="n">
         <v>1667.182735391305</v>
@@ -7126,19 +7128,19 @@
         <v>1672.742527425299</v>
       </c>
       <c r="U37" t="n">
-        <v>1394.342390204034</v>
+        <v>1469.16014391353</v>
       </c>
       <c r="V37" t="n">
-        <v>1394.342390204034</v>
+        <v>1182.20463578396</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.342390204034</v>
+        <v>910.178231370252</v>
       </c>
       <c r="X37" t="n">
-        <v>1148.950635537447</v>
+        <v>910.178231370252</v>
       </c>
       <c r="Y37" t="n">
-        <v>921.5309648515552</v>
+        <v>910.178231370252</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1253.60006400461</v>
+        <v>1250.332798277497</v>
       </c>
       <c r="C38" t="n">
-        <v>1253.60006400461</v>
+        <v>1250.332798277497</v>
       </c>
       <c r="D38" t="n">
-        <v>1253.60006400461</v>
+        <v>827.9230691296937</v>
       </c>
       <c r="E38" t="n">
-        <v>831.1903348568071</v>
+        <v>405.5133399818907</v>
       </c>
       <c r="F38" t="n">
-        <v>408.7806057090042</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G38" t="n">
-        <v>308.8293076224172</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H38" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I38" t="n">
-        <v>83.79828774524188</v>
+        <v>83.79828774524252</v>
       </c>
       <c r="J38" t="n">
-        <v>195.5292216073323</v>
+        <v>195.5292216073331</v>
       </c>
       <c r="K38" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L38" t="n">
-        <v>570.7285396968683</v>
+        <v>570.728539696869</v>
       </c>
       <c r="M38" t="n">
-        <v>801.88333538472</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N38" t="n">
         <v>1036.7784573317</v>
@@ -7214,10 +7216,10 @@
         <v>1672.742527425299</v>
       </c>
       <c r="X38" t="n">
-        <v>1253.60006400461</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="Y38" t="n">
-        <v>1253.60006400461</v>
+        <v>1672.742527425299</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I39" t="n">
-        <v>57.70569792707142</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J39" t="n">
-        <v>124.2518767018075</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K39" t="n">
-        <v>538.255652239569</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L39" t="n">
-        <v>691.1904547205731</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M39" t="n">
-        <v>869.6581557472898</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N39" t="n">
-        <v>1052.849365772965</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O39" t="n">
-        <v>1220.433533638575</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P39" t="n">
-        <v>1354.934602831949</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q39" t="n">
         <v>1511.8379027716</v>
@@ -7306,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.9008047460621</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="C40" t="n">
-        <v>616.3390932292871</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D40" t="n">
-        <v>450.4611004308097</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E40" t="n">
-        <v>280.703096681547</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F40" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G40" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H40" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I40" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="J40" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K40" t="n">
-        <v>230.3897930453123</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L40" t="n">
-        <v>644.3935685830738</v>
+        <v>231.6025814132115</v>
       </c>
       <c r="M40" t="n">
-        <v>861.7096435212255</v>
+        <v>324.1674353402283</v>
       </c>
       <c r="N40" t="n">
-        <v>952.0735121144794</v>
+        <v>738.1712108779898</v>
       </c>
       <c r="O40" t="n">
-        <v>1035.539170576305</v>
+        <v>1152.174986415751</v>
       </c>
       <c r="P40" t="n">
         <v>1449.542946114066</v>
@@ -7357,25 +7359,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S40" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T40" t="n">
-        <v>1524.001055161996</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U40" t="n">
-        <v>1245.600917940732</v>
+        <v>1257.06680716325</v>
       </c>
       <c r="V40" t="n">
-        <v>1060.927209159771</v>
+        <v>970.1112990336808</v>
       </c>
       <c r="W40" t="n">
-        <v>788.9008047460621</v>
+        <v>698.0848946199724</v>
       </c>
       <c r="X40" t="n">
-        <v>788.9008047460621</v>
+        <v>452.6931399533848</v>
       </c>
       <c r="Y40" t="n">
-        <v>788.9008047460621</v>
+        <v>225.2734692674931</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>455.8645796963089</v>
+        <v>845.3139403042629</v>
       </c>
       <c r="C41" t="n">
-        <v>455.8645796963089</v>
+        <v>845.3139403042629</v>
       </c>
       <c r="D41" t="n">
-        <v>455.8645796963089</v>
+        <v>845.3139403042629</v>
       </c>
       <c r="E41" t="n">
-        <v>33.45485054850599</v>
+        <v>422.9042111564601</v>
       </c>
       <c r="F41" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G41" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H41" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I41" t="n">
-        <v>83.79828774524188</v>
+        <v>83.79828774524185</v>
       </c>
       <c r="J41" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K41" t="n">
         <v>362.9849282099028</v>
@@ -7418,7 +7420,7 @@
         <v>570.7285396968684</v>
       </c>
       <c r="M41" t="n">
-        <v>801.8833353847201</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N41" t="n">
         <v>1036.7784573317</v>
@@ -7442,19 +7444,19 @@
         <v>1672.742527425299</v>
       </c>
       <c r="U41" t="n">
-        <v>1642.479447772138</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V41" t="n">
-        <v>1279.862497705965</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="W41" t="n">
-        <v>875.0070431169981</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="X41" t="n">
-        <v>455.8645796963089</v>
+        <v>1253.60006400461</v>
       </c>
       <c r="Y41" t="n">
-        <v>455.8645796963089</v>
+        <v>845.3139403042629</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>531.9672238352459</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C42" t="n">
-        <v>425.5107626718882</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D42" t="n">
-        <v>330.4204738184415</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E42" t="n">
         <v>236.300059145395</v>
@@ -7482,31 +7484,31 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H42" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I42" t="n">
         <v>83.76937108752902</v>
       </c>
       <c r="J42" t="n">
-        <v>150.3155498622651</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K42" t="n">
-        <v>264.0535687076974</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L42" t="n">
-        <v>416.9883711887014</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M42" t="n">
-        <v>595.4560722154181</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N42" t="n">
-        <v>778.6472822410934</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O42" t="n">
-        <v>946.2314501067035</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P42" t="n">
-        <v>1097.834127233839</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q42" t="n">
         <v>1511.8379027716</v>
@@ -7518,7 +7520,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T42" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U42" t="n">
         <v>1319.064612101715</v>
@@ -7527,13 +7529,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W42" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X42" t="n">
-        <v>779.7569041357883</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y42" t="n">
-        <v>653.2711249150091</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="43">
@@ -7543,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>206.0165620652811</v>
+        <v>721.1569752242629</v>
       </c>
       <c r="C43" t="n">
-        <v>33.45485054850599</v>
+        <v>548.5952637074878</v>
       </c>
       <c r="D43" t="n">
-        <v>33.45485054850599</v>
+        <v>382.7172709090105</v>
       </c>
       <c r="E43" t="n">
-        <v>33.45485054850599</v>
+        <v>212.9592671597478</v>
       </c>
       <c r="F43" t="n">
-        <v>33.45485054850599</v>
+        <v>36.25221312150396</v>
       </c>
       <c r="G43" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H43" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I43" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J43" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015357</v>
       </c>
       <c r="K43" t="n">
-        <v>230.3897930453123</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L43" t="n">
-        <v>318.1822665779014</v>
+        <v>304.3051044129574</v>
       </c>
       <c r="M43" t="n">
-        <v>410.7471205049181</v>
+        <v>718.3088799507188</v>
       </c>
       <c r="N43" t="n">
-        <v>621.5353950385435</v>
+        <v>1132.31265548848</v>
       </c>
       <c r="O43" t="n">
-        <v>1035.539170576305</v>
+        <v>1546.316431026242</v>
       </c>
       <c r="P43" t="n">
-        <v>1449.542946114066</v>
+        <v>1617.735720978398</v>
       </c>
       <c r="Q43" t="n">
         <v>1667.182735391305</v>
@@ -7594,25 +7596,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S43" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T43" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U43" t="n">
-        <v>1245.600917940732</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V43" t="n">
-        <v>958.6454098111619</v>
+        <v>1385.787019295729</v>
       </c>
       <c r="W43" t="n">
-        <v>686.6190053974535</v>
+        <v>1385.787019295729</v>
       </c>
       <c r="X43" t="n">
-        <v>625.2548514701599</v>
+        <v>1140.395264629142</v>
       </c>
       <c r="Y43" t="n">
-        <v>397.8351807842682</v>
+        <v>912.97559394325</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>33.45485054850599</v>
+        <v>845.3139403042634</v>
       </c>
       <c r="C44" t="n">
-        <v>33.45485054850599</v>
+        <v>845.3139403042634</v>
       </c>
       <c r="D44" t="n">
-        <v>33.45485054850599</v>
+        <v>845.3139403042634</v>
       </c>
       <c r="E44" t="n">
-        <v>33.45485054850599</v>
+        <v>422.9042111564605</v>
       </c>
       <c r="F44" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G44" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H44" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I44" t="n">
-        <v>83.79828774524188</v>
+        <v>83.79828774524185</v>
       </c>
       <c r="J44" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K44" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L44" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968686</v>
       </c>
       <c r="M44" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847202</v>
       </c>
       <c r="N44" t="n">
         <v>1036.7784573317</v>
@@ -7685,13 +7687,13 @@
         <v>1672.742527425299</v>
       </c>
       <c r="W44" t="n">
-        <v>1283.293166817345</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="X44" t="n">
-        <v>864.1507033966554</v>
+        <v>1253.60006400461</v>
       </c>
       <c r="Y44" t="n">
-        <v>455.8645796963089</v>
+        <v>845.3139403042634</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>531.9672238352459</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C45" t="n">
-        <v>425.5107626718882</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D45" t="n">
-        <v>330.4204738184415</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E45" t="n">
-        <v>236.3000591453952</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F45" t="n">
-        <v>152.9162207615568</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G45" t="n">
-        <v>68.2497881259456</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H45" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I45" t="n">
         <v>83.76937108752902</v>
@@ -7728,13 +7730,13 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K45" t="n">
-        <v>605.2485493631991</v>
+        <v>605.2485493631989</v>
       </c>
       <c r="L45" t="n">
-        <v>758.1833518442032</v>
+        <v>758.183351844203</v>
       </c>
       <c r="M45" t="n">
-        <v>936.6510528709197</v>
+        <v>936.6510528709194</v>
       </c>
       <c r="N45" t="n">
         <v>1119.842262896595</v>
@@ -7743,7 +7745,7 @@
         <v>1287.426430762205</v>
       </c>
       <c r="P45" t="n">
-        <v>1421.927499955579</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q45" t="n">
         <v>1511.8379027716</v>
@@ -7755,7 +7757,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T45" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U45" t="n">
         <v>1319.064612101715</v>
@@ -7764,13 +7766,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W45" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X45" t="n">
-        <v>779.7569041357883</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y45" t="n">
-        <v>653.2711249150091</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>203.2128542977687</v>
+        <v>883.3483896555588</v>
       </c>
       <c r="C46" t="n">
-        <v>203.2128542977687</v>
+        <v>710.7866781387837</v>
       </c>
       <c r="D46" t="n">
-        <v>203.2128542977687</v>
+        <v>544.9086853403064</v>
       </c>
       <c r="E46" t="n">
-        <v>33.45485054850599</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F46" t="n">
-        <v>33.45485054850599</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G46" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H46" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I46" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J46" t="n">
         <v>75.20378455015359</v>
@@ -7810,13 +7812,13 @@
         <v>418.568562451758</v>
       </c>
       <c r="L46" t="n">
-        <v>506.3610359843471</v>
+        <v>769.1447895942084</v>
       </c>
       <c r="M46" t="n">
-        <v>598.9258899113638</v>
+        <v>861.7096435212252</v>
       </c>
       <c r="N46" t="n">
-        <v>952.0735121144794</v>
+        <v>952.0735121144789</v>
       </c>
       <c r="O46" t="n">
         <v>1035.539170576305</v>
@@ -7831,25 +7833,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S46" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T46" t="n">
-        <v>1280.695918248114</v>
+        <v>1547.978433727025</v>
       </c>
       <c r="U46" t="n">
-        <v>1280.695918248114</v>
+        <v>1547.978433727025</v>
       </c>
       <c r="V46" t="n">
-        <v>993.7404101185448</v>
+        <v>1547.978433727025</v>
       </c>
       <c r="W46" t="n">
-        <v>721.7140057048364</v>
+        <v>1547.978433727025</v>
       </c>
       <c r="X46" t="n">
-        <v>622.4511437026476</v>
+        <v>1302.586679060438</v>
       </c>
       <c r="Y46" t="n">
-        <v>395.0314730167559</v>
+        <v>1075.167008374546</v>
       </c>
     </row>
   </sheetData>
@@ -8766,7 +8768,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>17.27435144824403</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.3670431532728</v>
+        <v>16.8047027164537</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8845,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>52.07773638877319</v>
+        <v>177.9839075203751</v>
       </c>
       <c r="N13" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>333.876885935289</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>346.0449349349549</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9003,10 +9005,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>17.2743514482442</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>16.80470271645406</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.3670431532728</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9082,19 +9084,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>177.9839075203754</v>
       </c>
       <c r="M16" t="n">
-        <v>216.0629305419086</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>326.9089969136443</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -9240,10 +9242,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>17.2743514482442</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.3670431532728</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9319,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>265.4381349594563</v>
+        <v>177.9839075203755</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9486,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>161.9576355439989</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>17.27435144824426</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>327.3670431532728</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9562,7 +9564,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>177.9839075203756</v>
+        <v>177.9839075203753</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9574,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>346.0449349349549</v>
+        <v>346.0449349349548</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>16.80470271645413</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>43.60129403456517</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.3670431532728</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9793,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>49.48036764062697</v>
       </c>
       <c r="L25" t="n">
-        <v>177.9839075203756</v>
+        <v>329.5063656617901</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -9808,13 +9810,13 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>333.8768859352888</v>
       </c>
       <c r="P25" t="n">
-        <v>346.0449349349549</v>
+        <v>346.0449349349547</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9963,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>233.1440055677638</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>111.4973890337533</v>
       </c>
       <c r="P27" t="n">
-        <v>43.60129403456517</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.3670431532728</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10033,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>329.5063656617905</v>
+        <v>329.5063656617904</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>324.6857794047927</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>326.9089969136442</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>77.80741219243419</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9767042326207</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>16.8047027164539</v>
+        <v>16.80470271645406</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10273,22 +10275,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>13.99871336724038</v>
       </c>
       <c r="M31" t="n">
-        <v>324.6857794047927</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>199.3430630505377</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10428,25 +10430,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>16.8047027164539</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10513,16 +10515,16 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>324.6857794047928</v>
+        <v>52.0777363887733</v>
       </c>
       <c r="N34" t="n">
         <v>326.9089969136442</v>
       </c>
       <c r="O34" t="n">
-        <v>333.8768859352888</v>
+        <v>333.8768859352887</v>
       </c>
       <c r="P34" t="n">
-        <v>73.43689191893554</v>
+        <v>346.0449349349547</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>16.80470271645392</v>
       </c>
       <c r="L36" t="n">
-        <v>263.7060333906642</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>80.93536121085276</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10741,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>329.5063656617904</v>
+        <v>54.30095389762457</v>
       </c>
       <c r="M37" t="n">
-        <v>30.5372826404049</v>
+        <v>324.6857794047926</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10759,7 +10761,7 @@
         <v>333.8768859352888</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>303.2987441336659</v>
+        <v>16.80470271645392</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>67.66959305417163</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10978,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>329.5063656617904</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>126.0113343546818</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>326.9089969136442</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P40" t="n">
-        <v>346.0449349349549</v>
+        <v>228.2309795415745</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11136,10 +11138,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>16.80470271645392</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>17.27435144824426</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.3670431532728</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>73.43689191893529</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>324.6857794047926</v>
       </c>
       <c r="N43" t="n">
-        <v>121.6408140811834</v>
+        <v>326.9089969136442</v>
       </c>
       <c r="O43" t="n">
-        <v>333.8768859352889</v>
+        <v>333.876885935289</v>
       </c>
       <c r="P43" t="n">
-        <v>346.0449349349549</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>16.8047027164539</v>
+        <v>16.80470271645368</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11458,13 +11460,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>265.4381349594559</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>265.4381349594563</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -23258,7 +23260,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208618</v>
       </c>
       <c r="D11" t="n">
         <v>13.36505512097517</v>
@@ -23267,10 +23269,10 @@
         <v>11.25136553696302</v>
       </c>
       <c r="F11" t="n">
-        <v>33.11933774956003</v>
+        <v>55.25085075583377</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H11" t="n">
         <v>272.6207125031721</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.06957617240103</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>133.1999654356588</v>
       </c>
       <c r="I13" t="n">
-        <v>69.83578017384923</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>103.9059995537724</v>
       </c>
     </row>
     <row r="14">
@@ -23498,19 +23500,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097511</v>
       </c>
       <c r="E14" t="n">
-        <v>11.25136553696291</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>279.7236019310822</v>
       </c>
       <c r="H14" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>52.51403670113841</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T14" t="n">
         <v>212.0456433386444</v>
@@ -23555,13 +23557,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.49925184817607</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>70.6448534397507</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23706,22 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>54.38213657076068</v>
       </c>
       <c r="U16" t="n">
         <v>275.6161358490523</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.85094292373384</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D17" t="n">
-        <v>45.83405062500123</v>
+        <v>13.36505512097506</v>
       </c>
       <c r="E17" t="n">
-        <v>11.25136553696291</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>52.51403670113841</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T17" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5237009191198</v>
+        <v>233.194207552599</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>86.63893768762361</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -23905,7 +23907,7 @@
         <v>163.3388892342509</v>
       </c>
       <c r="H19" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>69.83578017384922</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.32288334323971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.85094292373384</v>
+        <v>3.850942923733896</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>396.8374569276446</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.51403670113841</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T20" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5237009191198</v>
+        <v>121.2962640637197</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -24175,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>47.88420806710457</v>
       </c>
       <c r="U22" t="n">
-        <v>92.82700879853257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.69867024100785</v>
+        <v>3.850942923734124</v>
       </c>
       <c r="C23" t="n">
-        <v>15.57541623208607</v>
+        <v>15.57541623208635</v>
       </c>
       <c r="D23" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>11.25136553696291</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -24221,7 +24223,7 @@
         <v>396.054118850051</v>
       </c>
       <c r="H23" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24254,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.51403670113841</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T23" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5237009191198</v>
+        <v>101.6116575924287</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24364,10 +24366,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>4.410625264910692</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.3388892342509</v>
+        <v>97.71352335602683</v>
       </c>
       <c r="H25" t="n">
         <v>133.1999654356588</v>
@@ -24415,7 +24417,7 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24443,22 +24445,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>65.42314354936008</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097511</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696296</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>5.403123438559533</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.51403670113841</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>288.2911948549562</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.8720855447433</v>
       </c>
       <c r="U28" t="n">
-        <v>121.9607592891687</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>122.1817001759803</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24680,19 +24682,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>65.42314354936008</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097511</v>
       </c>
       <c r="E29" t="n">
-        <v>380.5796286002271</v>
+        <v>11.25136553696296</v>
       </c>
       <c r="F29" t="n">
-        <v>5.403123438559476</v>
+        <v>5.403123438559533</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H29" t="n">
         <v>272.6207125031721</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.51403670113841</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T29" t="n">
         <v>212.0456433386444</v>
@@ -24737,10 +24739,10 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24838,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>89.53101634926307</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>133.1999654356588</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>147.2540575406698</v>
+        <v>67.13440742726252</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U31" t="n">
         <v>275.6161358490523</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.85094292373384</v>
+        <v>3.85094292373401</v>
       </c>
       <c r="C32" t="n">
-        <v>403.8005992317816</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24926,10 +24928,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>29.88474467971758</v>
       </c>
       <c r="G32" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>272.6207125031721</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.51403670113841</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T32" t="n">
         <v>212.0456433386444</v>
@@ -24974,10 +24976,10 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1892168869220257</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6161358490523</v>
+        <v>104.9692583343677</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>3.850942923733953</v>
       </c>
       <c r="C35" t="n">
-        <v>15.57541623208607</v>
+        <v>15.57541623208618</v>
       </c>
       <c r="D35" t="n">
-        <v>13.36505512097506</v>
+        <v>13.36505512097517</v>
       </c>
       <c r="E35" t="n">
-        <v>11.25136553696291</v>
+        <v>61.0990928542372</v>
       </c>
       <c r="F35" t="n">
-        <v>55.25085075583343</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>396.054118850051</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>52.51403670113841</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T35" t="n">
         <v>212.0456433386444</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23891058389142</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>240.8720855447433</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>74.069576172401</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>3.85094292373384</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097506</v>
       </c>
       <c r="E38" t="n">
         <v>11.25136553696291</v>
       </c>
       <c r="F38" t="n">
-        <v>5.403123438559476</v>
+        <v>55.25085075583343</v>
       </c>
       <c r="G38" t="n">
-        <v>297.1023337443299</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>52.51403670113841</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T38" t="n">
         <v>212.0456433386444</v>
@@ -25454,7 +25456,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.3388892342509</v>
@@ -25567,7 +25569,7 @@
         <v>133.1999654356588</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T40" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>104.969258334367</v>
       </c>
       <c r="V40" t="n">
-        <v>101.2589813551226</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25634,10 +25636,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>11.25136553696291</v>
+        <v>11.25136553696302</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>38.03388829300974</v>
       </c>
       <c r="G41" t="n">
         <v>396.054118850051</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.51403670113841</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T41" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U41" t="n">
-        <v>226.5632520624905</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.3388892342509</v>
+        <v>160.5695002869829</v>
       </c>
       <c r="H43" t="n">
         <v>133.1999654356588</v>
@@ -25834,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T43" t="n">
         <v>240.8720855447433</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>182.187324731901</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.85094292373384</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -25871,10 +25873,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696296</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>38.03388829300934</v>
       </c>
       <c r="G44" t="n">
         <v>396.054118850051</v>
@@ -25925,7 +25927,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>15.2520330412018</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>133.1999654356588</v>
@@ -26071,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>117.3556327834522</v>
       </c>
       <c r="U46" t="n">
         <v>275.6161358490523</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>144.6676037377548</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>334107.5032334131</v>
+        <v>334107.5032334132</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>334107.5032334132</v>
+        <v>334107.5032334131</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>334107.5032334132</v>
+        <v>334107.503233413</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>334107.5032334132</v>
+        <v>334107.503233413</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>334107.5032334132</v>
+        <v>334107.503233413</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>334107.5032334132</v>
+        <v>334107.5032334133</v>
       </c>
     </row>
   </sheetData>
@@ -26332,7 +26334,7 @@
         <v>103464.9542517201</v>
       </c>
       <c r="I2" t="n">
-        <v>103464.9542517201</v>
+        <v>103464.95425172</v>
       </c>
       <c r="J2" t="n">
         <v>103464.9542517201</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>390603.7529837589</v>
+        <v>390603.752983759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26433,7 +26435,7 @@
         <v>11902.92322350586</v>
       </c>
       <c r="H4" t="n">
-        <v>11902.92322350586</v>
+        <v>11902.92322350585</v>
       </c>
       <c r="I4" t="n">
         <v>11902.92322350586</v>
@@ -26445,7 +26447,7 @@
         <v>11902.92322350586</v>
       </c>
       <c r="L4" t="n">
-        <v>11902.92322350586</v>
+        <v>11902.92322350585</v>
       </c>
       <c r="M4" t="n">
         <v>11902.92322350586</v>
@@ -26457,7 +26459,7 @@
         <v>11902.92322350586</v>
       </c>
       <c r="P4" t="n">
-        <v>11902.92322350586</v>
+        <v>11902.92322350585</v>
       </c>
     </row>
     <row r="5">
@@ -26479,34 +26481,34 @@
         <v>32636.5026199642</v>
       </c>
       <c r="F5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="G5" t="n">
         <v>32636.50261996421</v>
       </c>
       <c r="H5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="I5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.50261996419</v>
       </c>
       <c r="J5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="K5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="L5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="M5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="N5" t="n">
         <v>32636.50261996421</v>
       </c>
       <c r="O5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="P5" t="n">
         <v>32636.50261996421</v>
@@ -26528,40 +26530,40 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-331678.2245755089</v>
+        <v>-331678.224575509</v>
       </c>
       <c r="F6" t="n">
-        <v>58925.52840825005</v>
+        <v>58925.52840825004</v>
       </c>
       <c r="G6" t="n">
-        <v>58925.52840825008</v>
+        <v>58925.52840825007</v>
       </c>
       <c r="H6" t="n">
-        <v>58925.52840825004</v>
+        <v>58925.52840825007</v>
       </c>
       <c r="I6" t="n">
-        <v>58925.52840825005</v>
+        <v>58925.52840825</v>
       </c>
       <c r="J6" t="n">
+        <v>58925.52840825003</v>
+      </c>
+      <c r="K6" t="n">
+        <v>58925.52840825003</v>
+      </c>
+      <c r="L6" t="n">
+        <v>58925.52840825002</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-45288.00379287357</v>
+      </c>
+      <c r="N6" t="n">
+        <v>58925.52840825002</v>
+      </c>
+      <c r="O6" t="n">
         <v>58925.52840825001</v>
       </c>
-      <c r="K6" t="n">
-        <v>58925.52840825002</v>
-      </c>
-      <c r="L6" t="n">
-        <v>58925.52840825005</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-45288.00379287352</v>
-      </c>
-      <c r="N6" t="n">
-        <v>58925.52840825004</v>
-      </c>
-      <c r="O6" t="n">
-        <v>58925.52840825004</v>
-      </c>
       <c r="P6" t="n">
-        <v>58925.52840825004</v>
+        <v>58925.52840825003</v>
       </c>
     </row>
   </sheetData>
@@ -26744,37 +26746,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.771385463287</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="F3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="G3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="H3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="I3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="J3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="K3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="L3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="M3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="N3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="O3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="P3" t="n">
         <v>330.7713854632872</v>
@@ -26808,7 +26810,7 @@
         <v>418.1856318563248</v>
       </c>
       <c r="I4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563246</v>
       </c>
       <c r="J4" t="n">
         <v>418.1856318563248</v>
@@ -26817,16 +26819,16 @@
         <v>418.1856318563248</v>
       </c>
       <c r="L4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="N4" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="O4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="P4" t="n">
         <v>418.1856318563248</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.771385463287</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31753,46 +31755,46 @@
         <v>1.329734212917736</v>
       </c>
       <c r="H11" t="n">
-        <v>13.61814050804376</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I11" t="n">
-        <v>51.26457824351105</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J11" t="n">
         <v>112.8595291536268</v>
       </c>
       <c r="K11" t="n">
-        <v>169.1471783864345</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L11" t="n">
         <v>209.8420318050158</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139915</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N11" t="n">
         <v>237.2677999464441</v>
       </c>
       <c r="O11" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P11" t="n">
-        <v>191.2174419853367</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q11" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R11" t="n">
-        <v>83.52891675219379</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S11" t="n">
-        <v>30.30131837686293</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T11" t="n">
-        <v>5.820911517047391</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1063787370334188</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7114705272229193</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H12" t="n">
-        <v>6.871307460284511</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I12" t="n">
-        <v>24.49580543289437</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J12" t="n">
-        <v>67.21836239872327</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K12" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L12" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M12" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N12" t="n">
-        <v>185.0416262885609</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O12" t="n">
-        <v>169.2769372379899</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P12" t="n">
         <v>135.8596658518924</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.81858870305194</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R12" t="n">
-        <v>44.17358238319144</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S12" t="n">
-        <v>13.21525299468886</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T12" t="n">
-        <v>2.867725502271327</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04680727152782365</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5964729901796978</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H13" t="n">
-        <v>5.303187130870408</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I13" t="n">
-        <v>17.93756955922219</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J13" t="n">
-        <v>42.17064040570463</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K13" t="n">
-        <v>69.29931649542306</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L13" t="n">
-        <v>88.67926619453436</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M13" t="n">
-        <v>93.49985245153208</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N13" t="n">
-        <v>91.27663494268054</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O13" t="n">
-        <v>84.30874592103586</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P13" t="n">
-        <v>72.14069692136997</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.94647920495633</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R13" t="n">
-        <v>26.81959463117077</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S13" t="n">
         <v>10.39489747431346</v>
       </c>
       <c r="T13" t="n">
-        <v>2.548566412585981</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0325348903734381</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,7 +31995,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I14" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351106</v>
       </c>
       <c r="J14" t="n">
         <v>112.8595291536268</v>
@@ -32002,31 +32004,31 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L14" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M14" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N14" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O14" t="n">
         <v>224.0452553667434</v>
       </c>
       <c r="P14" t="n">
-        <v>191.2174419853368</v>
+        <v>191.2174419853367</v>
       </c>
       <c r="Q14" t="n">
         <v>143.5963354852203</v>
       </c>
       <c r="R14" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219381</v>
       </c>
       <c r="S14" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T14" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047392</v>
       </c>
       <c r="U14" t="n">
         <v>0.1063787370334189</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229194</v>
       </c>
       <c r="H15" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284512</v>
       </c>
       <c r="I15" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J15" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K15" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L15" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656606</v>
       </c>
       <c r="M15" t="n">
-        <v>180.2704050774915</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N15" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O15" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379899</v>
       </c>
       <c r="P15" t="n">
         <v>135.8596658518924</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305196</v>
       </c>
       <c r="R15" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319145</v>
       </c>
       <c r="S15" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T15" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271327</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782366</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.5964729901796979</v>
       </c>
       <c r="H16" t="n">
-        <v>5.303187130870411</v>
+        <v>5.303187130870409</v>
       </c>
       <c r="I16" t="n">
-        <v>17.9375695592222</v>
+        <v>17.93756955922219</v>
       </c>
       <c r="J16" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570464</v>
       </c>
       <c r="K16" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542307</v>
       </c>
       <c r="L16" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453438</v>
       </c>
       <c r="M16" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N16" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268056</v>
       </c>
       <c r="O16" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103588</v>
       </c>
       <c r="P16" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136998</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R16" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117077</v>
       </c>
       <c r="S16" t="n">
         <v>10.39489747431346</v>
       </c>
       <c r="T16" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585981</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.0325348903734381</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,7 +32232,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I17" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J17" t="n">
         <v>112.8595291536268</v>
@@ -32239,13 +32241,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M17" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N17" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O17" t="n">
         <v>224.0452553667434</v>
@@ -32257,13 +32259,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S17" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T17" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U17" t="n">
         <v>0.1063787370334189</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H18" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I18" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J18" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K18" t="n">
         <v>114.8868877226589</v>
@@ -32333,10 +32335,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R18" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S18" t="n">
         <v>13.21525299468887</v>
@@ -32345,7 +32347,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H19" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I19" t="n">
         <v>17.9375695592222</v>
@@ -32394,25 +32396,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K19" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L19" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M19" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N19" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O19" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P19" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R19" t="n">
         <v>26.81959463117078</v>
@@ -32424,7 +32426,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32469,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I20" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J20" t="n">
         <v>112.8595291536268</v>
@@ -32476,13 +32478,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N20" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O20" t="n">
         <v>224.0452553667434</v>
@@ -32494,13 +32496,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S20" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T20" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U20" t="n">
         <v>0.1063787370334189</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H21" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I21" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J21" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K21" t="n">
         <v>114.8868877226589</v>
@@ -32570,10 +32572,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R21" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S21" t="n">
         <v>13.21525299468887</v>
@@ -32582,7 +32584,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H22" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I22" t="n">
         <v>17.9375695592222</v>
@@ -32631,25 +32633,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K22" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L22" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M22" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O22" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P22" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R22" t="n">
         <v>26.81959463117078</v>
@@ -32661,7 +32663,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32706,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I23" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351106</v>
       </c>
       <c r="J23" t="n">
         <v>112.8595291536268</v>
@@ -32713,31 +32715,31 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L23" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M23" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N23" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O23" t="n">
         <v>224.0452553667434</v>
       </c>
       <c r="P23" t="n">
-        <v>191.2174419853368</v>
+        <v>191.2174419853367</v>
       </c>
       <c r="Q23" t="n">
         <v>143.5963354852203</v>
       </c>
       <c r="R23" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219381</v>
       </c>
       <c r="S23" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T23" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047392</v>
       </c>
       <c r="U23" t="n">
         <v>0.1063787370334189</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229194</v>
       </c>
       <c r="H24" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284512</v>
       </c>
       <c r="I24" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J24" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K24" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L24" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656606</v>
       </c>
       <c r="M24" t="n">
-        <v>180.2704050774915</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N24" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O24" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379899</v>
       </c>
       <c r="P24" t="n">
         <v>135.8596658518924</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305196</v>
       </c>
       <c r="R24" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319145</v>
       </c>
       <c r="S24" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T24" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271327</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782366</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.5964729901796979</v>
       </c>
       <c r="H25" t="n">
-        <v>5.303187130870411</v>
+        <v>5.303187130870409</v>
       </c>
       <c r="I25" t="n">
-        <v>17.9375695592222</v>
+        <v>17.93756955922219</v>
       </c>
       <c r="J25" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570464</v>
       </c>
       <c r="K25" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542307</v>
       </c>
       <c r="L25" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453438</v>
       </c>
       <c r="M25" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N25" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268056</v>
       </c>
       <c r="O25" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103588</v>
       </c>
       <c r="P25" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136998</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R25" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117077</v>
       </c>
       <c r="S25" t="n">
         <v>10.39489747431346</v>
       </c>
       <c r="T25" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585981</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.0325348903734381</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32943,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I26" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351106</v>
       </c>
       <c r="J26" t="n">
         <v>112.8595291536268</v>
@@ -32950,31 +32952,31 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L26" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N26" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O26" t="n">
         <v>224.0452553667434</v>
       </c>
       <c r="P26" t="n">
-        <v>191.2174419853368</v>
+        <v>191.2174419853367</v>
       </c>
       <c r="Q26" t="n">
         <v>143.5963354852203</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219381</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T26" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047392</v>
       </c>
       <c r="U26" t="n">
         <v>0.1063787370334189</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229194</v>
       </c>
       <c r="H27" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284512</v>
       </c>
       <c r="I27" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J27" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K27" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L27" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656606</v>
       </c>
       <c r="M27" t="n">
-        <v>180.2704050774915</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N27" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O27" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379899</v>
       </c>
       <c r="P27" t="n">
         <v>135.8596658518924</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305196</v>
       </c>
       <c r="R27" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319145</v>
       </c>
       <c r="S27" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T27" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271327</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782366</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.5964729901796979</v>
       </c>
       <c r="H28" t="n">
-        <v>5.303187130870411</v>
+        <v>5.303187130870409</v>
       </c>
       <c r="I28" t="n">
-        <v>17.9375695592222</v>
+        <v>17.93756955922219</v>
       </c>
       <c r="J28" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570464</v>
       </c>
       <c r="K28" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542307</v>
       </c>
       <c r="L28" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453438</v>
       </c>
       <c r="M28" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N28" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268056</v>
       </c>
       <c r="O28" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103588</v>
       </c>
       <c r="P28" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136998</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R28" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117077</v>
       </c>
       <c r="S28" t="n">
         <v>10.39489747431346</v>
       </c>
       <c r="T28" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585981</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.0325348903734381</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,7 +33180,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I29" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351106</v>
       </c>
       <c r="J29" t="n">
         <v>112.8595291536268</v>
@@ -33187,31 +33189,31 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L29" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M29" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N29" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O29" t="n">
         <v>224.0452553667434</v>
       </c>
       <c r="P29" t="n">
-        <v>191.2174419853368</v>
+        <v>191.2174419853367</v>
       </c>
       <c r="Q29" t="n">
         <v>143.5963354852203</v>
       </c>
       <c r="R29" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219381</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T29" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047392</v>
       </c>
       <c r="U29" t="n">
         <v>0.1063787370334189</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229194</v>
       </c>
       <c r="H30" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284512</v>
       </c>
       <c r="I30" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J30" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K30" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L30" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656606</v>
       </c>
       <c r="M30" t="n">
-        <v>180.2704050774915</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N30" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O30" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379899</v>
       </c>
       <c r="P30" t="n">
         <v>135.8596658518924</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305196</v>
       </c>
       <c r="R30" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319145</v>
       </c>
       <c r="S30" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T30" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271327</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782366</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.5964729901796979</v>
       </c>
       <c r="H31" t="n">
-        <v>5.303187130870411</v>
+        <v>5.303187130870409</v>
       </c>
       <c r="I31" t="n">
-        <v>17.9375695592222</v>
+        <v>17.93756955922219</v>
       </c>
       <c r="J31" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570464</v>
       </c>
       <c r="K31" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542307</v>
       </c>
       <c r="L31" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453438</v>
       </c>
       <c r="M31" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N31" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268056</v>
       </c>
       <c r="O31" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103588</v>
       </c>
       <c r="P31" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136998</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R31" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117077</v>
       </c>
       <c r="S31" t="n">
         <v>10.39489747431346</v>
       </c>
       <c r="T31" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585981</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.0325348903734381</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33417,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I32" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J32" t="n">
         <v>112.8595291536268</v>
@@ -33424,13 +33426,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L32" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M32" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N32" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O32" t="n">
         <v>224.0452553667434</v>
@@ -33442,13 +33444,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R32" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T32" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U32" t="n">
         <v>0.1063787370334189</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H33" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I33" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J33" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K33" t="n">
         <v>114.8868877226589</v>
@@ -33518,10 +33520,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R33" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S33" t="n">
         <v>13.21525299468887</v>
@@ -33530,7 +33532,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H34" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I34" t="n">
         <v>17.9375695592222</v>
@@ -33579,25 +33581,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K34" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L34" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M34" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N34" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O34" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P34" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R34" t="n">
         <v>26.81959463117078</v>
@@ -33609,7 +33611,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33654,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I35" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J35" t="n">
         <v>112.8595291536268</v>
@@ -33661,13 +33663,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L35" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M35" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N35" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O35" t="n">
         <v>224.0452553667434</v>
@@ -33679,13 +33681,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R35" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S35" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T35" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U35" t="n">
         <v>0.1063787370334189</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H36" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I36" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J36" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K36" t="n">
         <v>114.8868877226589</v>
@@ -33755,10 +33757,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R36" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S36" t="n">
         <v>13.21525299468887</v>
@@ -33767,7 +33769,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H37" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I37" t="n">
         <v>17.9375695592222</v>
@@ -33816,25 +33818,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K37" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L37" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M37" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N37" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O37" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P37" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R37" t="n">
         <v>26.81959463117078</v>
@@ -33846,7 +33848,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33891,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I38" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J38" t="n">
         <v>112.8595291536268</v>
@@ -33898,13 +33900,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L38" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M38" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N38" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O38" t="n">
         <v>224.0452553667434</v>
@@ -33916,13 +33918,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R38" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S38" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T38" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U38" t="n">
         <v>0.1063787370334189</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H39" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I39" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J39" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K39" t="n">
         <v>114.8868877226589</v>
@@ -33992,10 +33994,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R39" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S39" t="n">
         <v>13.21525299468887</v>
@@ -34004,7 +34006,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H40" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I40" t="n">
         <v>17.9375695592222</v>
@@ -34053,25 +34055,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K40" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L40" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M40" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N40" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O40" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P40" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R40" t="n">
         <v>26.81959463117078</v>
@@ -34083,7 +34085,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34128,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I41" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J41" t="n">
         <v>112.8595291536268</v>
@@ -34135,13 +34137,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L41" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M41" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N41" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O41" t="n">
         <v>224.0452553667434</v>
@@ -34150,16 +34152,16 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q41" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R41" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S41" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T41" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U41" t="n">
         <v>0.1063787370334189</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H42" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I42" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J42" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K42" t="n">
         <v>114.8868877226589</v>
@@ -34229,10 +34231,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R42" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S42" t="n">
         <v>13.21525299468887</v>
@@ -34241,7 +34243,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H43" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I43" t="n">
         <v>17.9375695592222</v>
@@ -34290,25 +34292,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K43" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L43" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M43" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N43" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O43" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P43" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R43" t="n">
         <v>26.81959463117078</v>
@@ -34320,7 +34322,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34390,7 +34392,7 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S44" t="n">
         <v>30.30131837686295</v>
@@ -35404,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85195676437966</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J11" t="n">
         <v>112.8595291536268</v>
@@ -35413,19 +35415,19 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L11" t="n">
-        <v>209.8420318050157</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139915</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N11" t="n">
         <v>237.2677999464441</v>
       </c>
       <c r="O11" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P11" t="n">
-        <v>191.2174419853366</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q11" t="n">
         <v>143.5963354852202</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>50.82274801921518</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J12" t="n">
-        <v>67.21836239872327</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K12" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L12" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M12" t="n">
         <v>180.2704050774914</v>
       </c>
       <c r="N12" t="n">
-        <v>185.0416262885609</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O12" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P12" t="n">
-        <v>153.1340173001365</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q12" t="n">
-        <v>418.1856318563248</v>
+        <v>107.6232914195057</v>
       </c>
       <c r="R12" t="n">
         <v>162.5299238926254</v>
@@ -35565,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.17064040570463</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K13" t="n">
-        <v>69.29931649542306</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L13" t="n">
-        <v>88.67926619453436</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M13" t="n">
-        <v>145.5775888403053</v>
+        <v>271.4837599719071</v>
       </c>
       <c r="N13" t="n">
-        <v>418.1856318563247</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O13" t="n">
-        <v>418.1856318563248</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P13" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R13" t="n">
-        <v>5.615951549488933</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437966</v>
       </c>
       <c r="J14" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K14" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L14" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M14" t="n">
         <v>233.4896926139916</v>
       </c>
       <c r="N14" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O14" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P14" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q14" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R14" t="n">
         <v>83.52891675219371</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>50.82274801921519</v>
+        <v>50.82274801921518</v>
       </c>
       <c r="J15" t="n">
-        <v>84.49271384696749</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K15" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391129</v>
       </c>
       <c r="L15" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656606</v>
       </c>
       <c r="M15" t="n">
-        <v>180.2704050774915</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N15" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O15" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P15" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q15" t="n">
-        <v>418.1856318563248</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R15" t="n">
         <v>162.5299238926254</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K16" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915196</v>
       </c>
       <c r="L16" t="n">
-        <v>88.67926619453442</v>
+        <v>266.6631737149098</v>
       </c>
       <c r="M16" t="n">
-        <v>309.5627829934407</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N16" t="n">
-        <v>418.1856318563249</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O16" t="n">
         <v>84.30874592103589</v>
@@ -35823,10 +35825,10 @@
         <v>418.1856318563248</v>
       </c>
       <c r="Q16" t="n">
-        <v>219.8381709871101</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R16" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488937</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J17" t="n">
         <v>112.8595291536269</v>
@@ -35887,25 +35889,25 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M17" t="n">
         <v>233.4896926139916</v>
       </c>
       <c r="N17" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O17" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P17" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q17" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>50.82274801921519</v>
       </c>
       <c r="J18" t="n">
-        <v>84.49271384696749</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K18" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L18" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M18" t="n">
-        <v>180.2704050774915</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N18" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O18" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P18" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q18" t="n">
-        <v>418.1856318563248</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R18" t="n">
         <v>162.5299238926254</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K19" t="n">
         <v>346.8331089915197</v>
       </c>
       <c r="L19" t="n">
-        <v>354.1174011539907</v>
+        <v>266.6631737149099</v>
       </c>
       <c r="M19" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N19" t="n">
-        <v>91.27663494268063</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O19" t="n">
         <v>84.30874592103589</v>
@@ -36060,10 +36062,10 @@
         <v>418.1856318563248</v>
       </c>
       <c r="Q19" t="n">
-        <v>219.8381709871101</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R19" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36115,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J20" t="n">
         <v>112.8595291536268</v>
       </c>
       <c r="K20" t="n">
-        <v>169.1471783864347</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L20" t="n">
         <v>209.8420318050158</v>
@@ -36142,7 +36144,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>50.82274801921519</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J21" t="n">
         <v>67.21836239872329</v>
@@ -36206,7 +36208,7 @@
         <v>154.4795984656607</v>
       </c>
       <c r="M21" t="n">
-        <v>180.2704050774915</v>
+        <v>342.2280406214904</v>
       </c>
       <c r="N21" t="n">
         <v>185.041626288561</v>
@@ -36215,13 +36217,13 @@
         <v>169.27693723799</v>
       </c>
       <c r="P21" t="n">
-        <v>153.1340173001366</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q21" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="R21" t="n">
-        <v>162.5299238926254</v>
+        <v>44.17358238319139</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,13 +36284,13 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L22" t="n">
-        <v>266.66317371491</v>
+        <v>266.6631737149097</v>
       </c>
       <c r="M22" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268063</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O22" t="n">
         <v>84.30874592103589</v>
@@ -36297,10 +36299,10 @@
         <v>418.1856318563248</v>
       </c>
       <c r="Q22" t="n">
-        <v>219.8381709871101</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R22" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437966</v>
       </c>
       <c r="J23" t="n">
         <v>112.8595291536268</v>
       </c>
       <c r="K23" t="n">
-        <v>169.1471783864347</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L23" t="n">
         <v>209.8420318050158</v>
       </c>
       <c r="M23" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N23" t="n">
-        <v>237.2677999464441</v>
+        <v>237.267799946444</v>
       </c>
       <c r="O23" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P23" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q23" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R23" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>24.49580543289438</v>
+        <v>50.82274801921518</v>
       </c>
       <c r="J24" t="n">
-        <v>67.2183623987233</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K24" t="n">
-        <v>114.8868877226589</v>
+        <v>131.691590439113</v>
       </c>
       <c r="L24" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656606</v>
       </c>
       <c r="M24" t="n">
         <v>180.2704050774914</v>
@@ -36449,13 +36451,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O24" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P24" t="n">
-        <v>179.4609598864575</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q24" t="n">
-        <v>418.1856318563248</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R24" t="n">
         <v>162.5299238926254</v>
@@ -36513,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K25" t="n">
-        <v>346.8331089915197</v>
+        <v>118.77968413605</v>
       </c>
       <c r="L25" t="n">
-        <v>266.66317371491</v>
+        <v>418.1856318563246</v>
       </c>
       <c r="M25" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N25" t="n">
-        <v>91.27663494268063</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O25" t="n">
-        <v>84.30874592103589</v>
+        <v>418.1856318563246</v>
       </c>
       <c r="P25" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563246</v>
       </c>
       <c r="Q25" t="n">
-        <v>219.8381709871101</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R25" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488937</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,10 +36591,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437966</v>
       </c>
       <c r="J26" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K26" t="n">
         <v>169.1471783864347</v>
@@ -36601,10 +36603,10 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139915</v>
       </c>
       <c r="N26" t="n">
-        <v>237.2677999464441</v>
+        <v>237.267799946444</v>
       </c>
       <c r="O26" t="n">
         <v>224.0452553667435</v>
@@ -36613,10 +36615,10 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q26" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>24.49580543289438</v>
+        <v>50.82274801921518</v>
       </c>
       <c r="J27" t="n">
         <v>67.2183623987233</v>
@@ -36677,22 +36679,22 @@
         <v>114.8868877226589</v>
       </c>
       <c r="L27" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656606</v>
       </c>
       <c r="M27" t="n">
         <v>180.2704050774914</v>
       </c>
       <c r="N27" t="n">
-        <v>185.041626288561</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="O27" t="n">
-        <v>169.27693723799</v>
+        <v>280.7743262717431</v>
       </c>
       <c r="P27" t="n">
-        <v>179.4609598864575</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q27" t="n">
-        <v>418.1856318563248</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R27" t="n">
         <v>162.5299238926254</v>
@@ -36750,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570463</v>
       </c>
       <c r="K28" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542306</v>
       </c>
       <c r="L28" t="n">
-        <v>418.1856318563249</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="M28" t="n">
-        <v>93.49985245153209</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N28" t="n">
-        <v>91.27663494268052</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="O28" t="n">
-        <v>84.30874592103601</v>
+        <v>162.11615811347</v>
       </c>
       <c r="P28" t="n">
-        <v>354.1174011539906</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q28" t="n">
-        <v>219.8381709871101</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R28" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488937</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437966</v>
       </c>
       <c r="J29" t="n">
         <v>112.8595291536268</v>
       </c>
       <c r="K29" t="n">
-        <v>169.1471783864347</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L29" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M29" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N29" t="n">
-        <v>237.2677999464441</v>
+        <v>237.267799946444</v>
       </c>
       <c r="O29" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P29" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q29" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R29" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>50.82274801921519</v>
+        <v>50.82274801921518</v>
       </c>
       <c r="J30" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K30" t="n">
-        <v>131.6915904391128</v>
+        <v>131.6915904391129</v>
       </c>
       <c r="L30" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656606</v>
       </c>
       <c r="M30" t="n">
         <v>180.2704050774914</v>
@@ -36923,7 +36925,7 @@
         <v>185.041626288561</v>
       </c>
       <c r="O30" t="n">
-        <v>169.2769372379901</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P30" t="n">
         <v>135.8596658518925</v>
@@ -36990,28 +36992,28 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K31" t="n">
-        <v>346.8331089915197</v>
+        <v>346.8331089915196</v>
       </c>
       <c r="L31" t="n">
-        <v>88.67926619453442</v>
+        <v>102.6779795617747</v>
       </c>
       <c r="M31" t="n">
+        <v>93.49985245153209</v>
+      </c>
+      <c r="N31" t="n">
+        <v>91.27663494268052</v>
+      </c>
+      <c r="O31" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="N31" t="n">
-        <v>91.27663494268063</v>
-      </c>
-      <c r="O31" t="n">
-        <v>283.6518089715737</v>
-      </c>
       <c r="P31" t="n">
-        <v>72.14069692136991</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q31" t="n">
-        <v>219.8381709871101</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R31" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488937</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J32" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K32" t="n">
-        <v>169.1471783864347</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L32" t="n">
         <v>209.8420318050158</v>
       </c>
       <c r="M32" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N32" t="n">
         <v>237.2677999464441</v>
       </c>
       <c r="O32" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P32" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q32" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R32" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>50.82274801921519</v>
+        <v>50.82274801921518</v>
       </c>
       <c r="J33" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K33" t="n">
-        <v>131.6915904391128</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L33" t="n">
         <v>154.4795984656607</v>
@@ -37160,13 +37162,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O33" t="n">
-        <v>169.2769372379901</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P33" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195059</v>
       </c>
       <c r="R33" t="n">
         <v>162.5299238926254</v>
@@ -37224,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570464</v>
       </c>
       <c r="K34" t="n">
         <v>69.29931649542308</v>
       </c>
       <c r="L34" t="n">
-        <v>88.67926619453442</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M34" t="n">
-        <v>418.1856318563249</v>
+        <v>145.5775888403054</v>
       </c>
       <c r="N34" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="O34" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="P34" t="n">
-        <v>145.5775888403055</v>
+        <v>418.1856318563246</v>
       </c>
       <c r="Q34" t="n">
         <v>49.9464792049564</v>
       </c>
       <c r="R34" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,22 +37302,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J35" t="n">
-        <v>112.8595291536268</v>
+        <v>112.859529153627</v>
       </c>
       <c r="K35" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L35" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M35" t="n">
         <v>233.4896926139916</v>
       </c>
       <c r="N35" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O35" t="n">
         <v>224.0452553667433</v>
@@ -37327,7 +37329,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R35" t="n">
-        <v>83.52891675219416</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J36" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K36" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L36" t="n">
-        <v>418.1856318563248</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M36" t="n">
         <v>180.2704050774914</v>
@@ -37397,13 +37399,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O36" t="n">
-        <v>169.2769372379901</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P36" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q36" t="n">
-        <v>171.7539499139048</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R36" t="n">
         <v>162.5299238926254</v>
@@ -37461,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K37" t="n">
-        <v>346.8331089915197</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L37" t="n">
-        <v>418.1856318563248</v>
+        <v>142.980220092159</v>
       </c>
       <c r="M37" t="n">
-        <v>124.037135091937</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="N37" t="n">
         <v>91.27663494268063</v>
@@ -37479,13 +37481,13 @@
         <v>418.1856318563248</v>
       </c>
       <c r="P37" t="n">
-        <v>72.14069692136991</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q37" t="n">
         <v>49.9464792049564</v>
       </c>
       <c r="R37" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J38" t="n">
         <v>112.8595291536268</v>
@@ -37549,19 +37551,19 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M38" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N38" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O38" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P38" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q38" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R38" t="n">
         <v>83.52891675219394</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>24.49580543289438</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J39" t="n">
-        <v>67.2183623987233</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K39" t="n">
-        <v>418.1856318563248</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L39" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M39" t="n">
-        <v>180.2704050774915</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N39" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O39" t="n">
-        <v>169.2769372379901</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P39" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.4881817572236</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R39" t="n">
         <v>162.5299238926254</v>
@@ -37698,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K40" t="n">
         <v>69.29931649542308</v>
       </c>
       <c r="L40" t="n">
+        <v>88.67926619453439</v>
+      </c>
+      <c r="M40" t="n">
+        <v>93.49985245153212</v>
+      </c>
+      <c r="N40" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="M40" t="n">
-        <v>219.5111868062139</v>
-      </c>
-      <c r="N40" t="n">
-        <v>91.27663494268063</v>
-      </c>
       <c r="O40" t="n">
-        <v>84.30874592103589</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P40" t="n">
-        <v>418.1856318563248</v>
+        <v>300.3716764629444</v>
       </c>
       <c r="Q40" t="n">
-        <v>219.8381709871101</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R40" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,25 +37776,25 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J41" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K41" t="n">
-        <v>169.1471783864347</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L41" t="n">
         <v>209.8420318050158</v>
       </c>
       <c r="M41" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N41" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O41" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P41" t="n">
         <v>191.2174419853368</v>
@@ -37801,7 +37803,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R41" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J42" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K42" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L42" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M42" t="n">
-        <v>180.2704050774915</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N42" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O42" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P42" t="n">
-        <v>153.1340173001366</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q42" t="n">
-        <v>418.1856318563248</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R42" t="n">
         <v>162.5299238926254</v>
@@ -37935,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K43" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L43" t="n">
-        <v>88.67926619453442</v>
+        <v>162.1161581134697</v>
       </c>
       <c r="M43" t="n">
-        <v>93.49985245153209</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="N43" t="n">
-        <v>212.9174490238639</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="O43" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="P43" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q43" t="n">
-        <v>219.8381709871101</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R43" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>50.85195676437969</v>
       </c>
       <c r="J44" t="n">
-        <v>112.8595291536268</v>
+        <v>112.859529153627</v>
       </c>
       <c r="K44" t="n">
         <v>169.1471783864347</v>
@@ -38026,10 +38028,10 @@
         <v>233.4896926139917</v>
       </c>
       <c r="N44" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O44" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P44" t="n">
         <v>191.2174419853368</v>
@@ -38038,7 +38040,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J45" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K45" t="n">
-        <v>131.6915904391128</v>
+        <v>131.6915904391126</v>
       </c>
       <c r="L45" t="n">
         <v>154.4795984656607</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570466</v>
       </c>
       <c r="K46" t="n">
         <v>346.8331089915197</v>
       </c>
       <c r="L46" t="n">
-        <v>88.67926619453442</v>
+        <v>354.1174011539903</v>
       </c>
       <c r="M46" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N46" t="n">
-        <v>356.7147699021369</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O46" t="n">
         <v>84.30874592103589</v>
@@ -38193,7 +38195,7 @@
         <v>418.1856318563248</v>
       </c>
       <c r="Q46" t="n">
-        <v>219.8381709871101</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R46" t="n">
         <v>5.615951549488948</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50926.33754754927</v>
+        <v>-59441.6834061937</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12802115.96047481</v>
+        <v>12802115.9604748</v>
       </c>
     </row>
     <row r="9">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="D11" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="F11" t="n">
-        <v>368.3379045390506</v>
+        <v>154.9120433266918</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>49.60563018141161</v>
+        <v>49.60563018141229</v>
       </c>
       <c r="T12" t="n">
         <v>126.0091317304331</v>
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>161.750826615779</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>121.2394744252604</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>116.3305169189688</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H14" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>237.6186254974934</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H15" t="n">
-        <v>34.44698820166514</v>
+        <v>34.44698820166521</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>49.60563018141183</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T15" t="n">
         <v>126.0091317304331</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>162.8225906357931</v>
       </c>
       <c r="G16" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T16" t="n">
-        <v>186.4899489739826</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>32.32968775282257</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U17" t="n">
-        <v>23.32949336652084</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,22 +2004,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>81.4214860241465</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H19" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>144.3228189323916</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>18.18554900941722</v>
       </c>
       <c r="G20" t="n">
         <v>396.054118850051</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U20" t="n">
-        <v>135.2274368554002</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T22" t="n">
-        <v>192.9878774776387</v>
+        <v>224.2814613118335</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>418.1856318563246</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>418.1856318563246</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>74.1458072303878</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H23" t="n">
         <v>272.6207125031721</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U23" t="n">
-        <v>154.9120433266912</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2453,7 +2453,7 @@
         <v>126.0091317304331</v>
       </c>
       <c r="U24" t="n">
-        <v>174.5263742585036</v>
+        <v>174.5263742585039</v>
       </c>
       <c r="V24" t="n">
         <v>197.1263427586206</v>
@@ -2487,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>65.62536587822407</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>155.5942573928129</v>
       </c>
       <c r="U25" t="n">
         <v>275.6161358490523</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>368.3379045390508</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="F26" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>324.6350067272861</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2730,7 +2730,7 @@
         <v>163.3388892342509</v>
       </c>
       <c r="H28" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>69.83578017384922</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>147.2540575406698</v>
+        <v>106.7157783864465</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>147.1244401935911</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>368.3379045390508</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>418.1856318563248</v>
+        <v>330.6695081495076</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>163.3388892342509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>49.78240166275754</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>80.11965011340732</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>393.7040106151667</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>396.054118850051</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>140.6265312158795</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T34" t="n">
         <v>240.8720855447433</v>
       </c>
       <c r="U34" t="n">
-        <v>170.6468775146846</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>141.6670360300509</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D35" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>368.3379045390506</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>67.46499264071295</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>29.6891523726852</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U37" t="n">
-        <v>201.5465596766513</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>418.1856318563248</v>
+        <v>304.9504002559947</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>368.3379045390509</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T40" t="n">
         <v>240.8720855447433</v>
       </c>
       <c r="U40" t="n">
-        <v>170.6468775146853</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>77.08844905045541</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>385.5548670018746</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>81.44736203369477</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>2.769388947267996</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>86.94298114461296</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>385.554867001875</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>338.7054872701706</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,10 +4137,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.3388892342509</v>
+        <v>105.4224278738467</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>123.5164527612911</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1672.742527425299</v>
+        <v>1310.125577359126</v>
       </c>
       <c r="C11" t="n">
-        <v>1250.332798277496</v>
+        <v>887.7158482113231</v>
       </c>
       <c r="D11" t="n">
-        <v>827.9230691296932</v>
+        <v>887.7158482113231</v>
       </c>
       <c r="E11" t="n">
-        <v>405.5133399818904</v>
+        <v>465.3061190635201</v>
       </c>
       <c r="F11" t="n">
-        <v>33.45485054850598</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="G11" t="n">
-        <v>33.45485054850598</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H11" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I11" t="n">
-        <v>83.79828774524184</v>
+        <v>83.79828774524223</v>
       </c>
       <c r="J11" t="n">
-        <v>195.5292216073323</v>
+        <v>195.5292216073328</v>
       </c>
       <c r="K11" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099031</v>
       </c>
       <c r="L11" t="n">
-        <v>570.7285396968683</v>
+        <v>570.7285396968688</v>
       </c>
       <c r="M11" t="n">
-        <v>801.8833353847199</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N11" t="n">
         <v>1036.7784573317</v>
@@ -5059,34 +5059,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P11" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q11" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R11" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S11" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T11" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="U11" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="V11" t="n">
-        <v>1672.742527425299</v>
+        <v>1310.125577359126</v>
       </c>
       <c r="W11" t="n">
-        <v>1672.742527425299</v>
+        <v>1310.125577359126</v>
       </c>
       <c r="X11" t="n">
-        <v>1672.742527425299</v>
+        <v>1310.125577359126</v>
       </c>
       <c r="Y11" t="n">
-        <v>1672.742527425299</v>
+        <v>1310.125577359126</v>
       </c>
     </row>
     <row r="12">
@@ -5102,22 +5102,22 @@
         <v>425.5107626718881</v>
       </c>
       <c r="D12" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E12" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F12" t="n">
         <v>152.9162207615567</v>
       </c>
       <c r="G12" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594553</v>
       </c>
       <c r="H12" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I12" t="n">
-        <v>83.76937108752902</v>
+        <v>83.76937108752904</v>
       </c>
       <c r="J12" t="n">
         <v>474.8738748284774</v>
@@ -5138,13 +5138,13 @@
         <v>1270.789775072916</v>
       </c>
       <c r="P12" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q12" t="n">
-        <v>1511.8379027716</v>
+        <v>1511.837902771601</v>
       </c>
       <c r="R12" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S12" t="n">
         <v>1622.635830272358</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>547.7123931078187</v>
+        <v>267.3807159925749</v>
       </c>
       <c r="C13" t="n">
-        <v>375.1506815910436</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="D13" t="n">
-        <v>375.1506815910436</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="E13" t="n">
-        <v>375.1506815910436</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="F13" t="n">
-        <v>198.4436275527998</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="G13" t="n">
-        <v>33.45485054850598</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="H13" t="n">
-        <v>33.45485054850598</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I13" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J13" t="n">
         <v>161.7834697148434</v>
@@ -5205,46 +5205,46 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L13" t="n">
-        <v>592.940721149037</v>
+        <v>919.1520231542095</v>
       </c>
       <c r="M13" t="n">
-        <v>861.7096435212251</v>
+        <v>1333.155798691971</v>
       </c>
       <c r="N13" t="n">
-        <v>952.0735121144787</v>
+        <v>1423.519667285225</v>
       </c>
       <c r="O13" t="n">
-        <v>1035.539170576304</v>
+        <v>1506.985325747051</v>
       </c>
       <c r="P13" t="n">
-        <v>1449.542946114066</v>
+        <v>1578.404615699207</v>
       </c>
       <c r="Q13" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R13" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S13" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="T13" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="U13" t="n">
-        <v>1394.342390204034</v>
+        <v>1245.600917940732</v>
       </c>
       <c r="V13" t="n">
-        <v>1107.386882074464</v>
+        <v>958.6454098111622</v>
       </c>
       <c r="W13" t="n">
-        <v>1107.386882074464</v>
+        <v>686.6190053974537</v>
       </c>
       <c r="X13" t="n">
-        <v>861.9951274078769</v>
+        <v>686.6190053974537</v>
       </c>
       <c r="Y13" t="n">
-        <v>739.5310118268058</v>
+        <v>459.199334711562</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>848.7446094156431</v>
+        <v>855.9192452014109</v>
       </c>
       <c r="C14" t="n">
-        <v>848.7446094156431</v>
+        <v>855.9192452014109</v>
       </c>
       <c r="D14" t="n">
-        <v>426.3348802678403</v>
+        <v>855.9192452014109</v>
       </c>
       <c r="E14" t="n">
-        <v>426.3348802678403</v>
+        <v>855.9192452014109</v>
       </c>
       <c r="F14" t="n">
-        <v>426.3348802678403</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G14" t="n">
-        <v>308.8293076224172</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H14" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I14" t="n">
-        <v>83.79828774524256</v>
+        <v>83.79828774524201</v>
       </c>
       <c r="J14" t="n">
-        <v>195.5292216073331</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K14" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L14" t="n">
-        <v>570.728539696869</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M14" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N14" t="n">
         <v>1036.7784573317</v>
@@ -5299,7 +5299,7 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q14" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R14" t="n">
         <v>1672.742527425299</v>
@@ -5308,22 +5308,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T14" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U14" t="n">
-        <v>1672.742527425299</v>
+        <v>1218.536195267584</v>
       </c>
       <c r="V14" t="n">
-        <v>1672.742527425299</v>
+        <v>855.9192452014109</v>
       </c>
       <c r="W14" t="n">
-        <v>1267.887072836332</v>
+        <v>855.9192452014109</v>
       </c>
       <c r="X14" t="n">
-        <v>848.7446094156431</v>
+        <v>855.9192452014109</v>
       </c>
       <c r="Y14" t="n">
-        <v>848.7446094156431</v>
+        <v>855.9192452014109</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C15" t="n">
-        <v>425.5107626718881</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D15" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E15" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F15" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G15" t="n">
-        <v>68.24978812594551</v>
+        <v>68.2497881259456</v>
       </c>
       <c r="H15" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I15" t="n">
-        <v>83.76937108752901</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J15" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K15" t="n">
-        <v>605.2485493631992</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L15" t="n">
-        <v>758.1833518442032</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M15" t="n">
-        <v>936.6510528709197</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N15" t="n">
-        <v>1119.842262896595</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O15" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P15" t="n">
-        <v>1421.927499955578</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q15" t="n">
         <v>1511.8379027716</v>
@@ -5387,7 +5387,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T15" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U15" t="n">
         <v>1319.064612101715</v>
@@ -5396,13 +5396,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W15" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X15" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y15" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>547.7123931078187</v>
+        <v>197.9221138169839</v>
       </c>
       <c r="C16" t="n">
-        <v>375.1506815910436</v>
+        <v>197.9221138169839</v>
       </c>
       <c r="D16" t="n">
-        <v>375.1506815910436</v>
+        <v>197.9221138169839</v>
       </c>
       <c r="E16" t="n">
-        <v>375.1506815910436</v>
+        <v>197.9221138169839</v>
       </c>
       <c r="F16" t="n">
-        <v>198.4436275527998</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G16" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H16" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I16" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J16" t="n">
         <v>161.7834697148434</v>
@@ -5442,13 +5442,13 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L16" t="n">
-        <v>769.1447895942085</v>
+        <v>769.1447895942089</v>
       </c>
       <c r="M16" t="n">
-        <v>861.7096435212253</v>
+        <v>861.7096435212255</v>
       </c>
       <c r="N16" t="n">
-        <v>952.0735121144789</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O16" t="n">
         <v>1035.539170576305</v>
@@ -5463,25 +5463,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S16" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T16" t="n">
-        <v>1484.368841592993</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U16" t="n">
-        <v>1484.368841592993</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="V16" t="n">
-        <v>1484.368841592993</v>
+        <v>715.3402728972799</v>
       </c>
       <c r="W16" t="n">
-        <v>1212.342437179285</v>
+        <v>443.3138684835714</v>
       </c>
       <c r="X16" t="n">
-        <v>966.9506825126975</v>
+        <v>197.9221138169839</v>
       </c>
       <c r="Y16" t="n">
-        <v>739.5310118268058</v>
+        <v>197.9221138169839</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>878.2743088441118</v>
+        <v>741.5402233828956</v>
       </c>
       <c r="C17" t="n">
-        <v>455.8645796963089</v>
+        <v>741.5402233828956</v>
       </c>
       <c r="D17" t="n">
-        <v>33.45485054850599</v>
+        <v>741.5402233828956</v>
       </c>
       <c r="E17" t="n">
-        <v>33.45485054850599</v>
+        <v>741.5402233828956</v>
       </c>
       <c r="F17" t="n">
-        <v>33.45485054850599</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G17" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H17" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I17" t="n">
-        <v>83.79828774524245</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J17" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K17" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L17" t="n">
-        <v>570.728539696869</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M17" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N17" t="n">
         <v>1036.7784573317</v>
@@ -5542,25 +5542,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S17" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T17" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U17" t="n">
-        <v>1649.177382610632</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V17" t="n">
-        <v>1286.560432544458</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="W17" t="n">
-        <v>1286.560432544458</v>
+        <v>741.5402233828956</v>
       </c>
       <c r="X17" t="n">
-        <v>1286.560432544458</v>
+        <v>741.5402233828956</v>
       </c>
       <c r="Y17" t="n">
-        <v>878.2743088441118</v>
+        <v>741.5402233828956</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>531.9672238352457</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C18" t="n">
-        <v>425.510762671888</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D18" t="n">
         <v>330.4204738184413</v>
@@ -5582,7 +5582,7 @@
         <v>236.300059145395</v>
       </c>
       <c r="F18" t="n">
-        <v>152.9162207615566</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G18" t="n">
         <v>68.24978812594551</v>
@@ -5597,13 +5597,13 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K18" t="n">
-        <v>605.2485493631991</v>
+        <v>605.2485493631987</v>
       </c>
       <c r="L18" t="n">
-        <v>758.1833518442032</v>
+        <v>758.1833518442028</v>
       </c>
       <c r="M18" t="n">
-        <v>936.6510528709197</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N18" t="n">
         <v>1119.842262896595</v>
@@ -5612,7 +5612,7 @@
         <v>1287.426430762205</v>
       </c>
       <c r="P18" t="n">
-        <v>1421.927499955579</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q18" t="n">
         <v>1511.8379027716</v>
@@ -5636,10 +5636,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X18" t="n">
-        <v>779.7569041357881</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y18" t="n">
-        <v>653.2711249150088</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.1221882558776</v>
+        <v>713.590385906296</v>
       </c>
       <c r="C19" t="n">
-        <v>416.1221882558776</v>
+        <v>541.0286743895209</v>
       </c>
       <c r="D19" t="n">
-        <v>250.2441954574003</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0002701804846</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F19" t="n">
-        <v>168.0002701804846</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G19" t="n">
-        <v>168.0002701804846</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H19" t="n">
         <v>33.45485054850599</v>
@@ -5679,19 +5679,19 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L19" t="n">
-        <v>769.1447895942088</v>
+        <v>919.1520231542094</v>
       </c>
       <c r="M19" t="n">
-        <v>861.7096435212254</v>
+        <v>1029.902418385558</v>
       </c>
       <c r="N19" t="n">
-        <v>952.0735121144792</v>
+        <v>1120.266286978811</v>
       </c>
       <c r="O19" t="n">
-        <v>1035.539170576305</v>
+        <v>1203.731945440637</v>
       </c>
       <c r="P19" t="n">
-        <v>1449.542946114066</v>
+        <v>1617.735720978399</v>
       </c>
       <c r="Q19" t="n">
         <v>1667.182735391305</v>
@@ -5700,25 +5700,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S19" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T19" t="n">
-        <v>1672.742527425299</v>
+        <v>1378.220429977762</v>
       </c>
       <c r="U19" t="n">
-        <v>1394.342390204034</v>
+        <v>1378.220429977762</v>
       </c>
       <c r="V19" t="n">
-        <v>1107.386882074465</v>
+        <v>1378.220429977762</v>
       </c>
       <c r="W19" t="n">
-        <v>835.3604776607565</v>
+        <v>1378.220429977762</v>
       </c>
       <c r="X19" t="n">
-        <v>835.3604776607565</v>
+        <v>1132.828675311175</v>
       </c>
       <c r="Y19" t="n">
-        <v>607.9408069748647</v>
+        <v>905.4090046252832</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>708.8839731275193</v>
+        <v>727.2532145511731</v>
       </c>
       <c r="C20" t="n">
-        <v>708.8839731275193</v>
+        <v>727.2532145511731</v>
       </c>
       <c r="D20" t="n">
-        <v>708.8839731275193</v>
+        <v>727.2532145511731</v>
       </c>
       <c r="E20" t="n">
-        <v>708.8839731275193</v>
+        <v>727.2532145511731</v>
       </c>
       <c r="F20" t="n">
         <v>708.8839731275193</v>
@@ -5746,22 +5746,22 @@
         <v>308.8293076224172</v>
       </c>
       <c r="H20" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I20" t="n">
-        <v>83.79828774524199</v>
+        <v>83.79828774524201</v>
       </c>
       <c r="J20" t="n">
-        <v>195.5292216073325</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K20" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L20" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M20" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N20" t="n">
         <v>1036.7784573317</v>
@@ -5773,31 +5773,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q20" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R20" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S20" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T20" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U20" t="n">
-        <v>1536.149156864289</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V20" t="n">
-        <v>1536.149156864289</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="W20" t="n">
-        <v>1131.293702275322</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="X20" t="n">
-        <v>1131.293702275322</v>
+        <v>727.2532145511731</v>
       </c>
       <c r="Y20" t="n">
-        <v>1131.293702275322</v>
+        <v>727.2532145511731</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C21" t="n">
-        <v>425.5107626718881</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D21" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E21" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F21" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G21" t="n">
         <v>68.24978812594551</v>
       </c>
       <c r="H21" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I21" t="n">
-        <v>57.70569792707141</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J21" t="n">
-        <v>124.2518767018075</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K21" t="n">
-        <v>237.9898955472397</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L21" t="n">
-        <v>390.9246980282438</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M21" t="n">
-        <v>729.7304582435193</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N21" t="n">
-        <v>912.9216682691947</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O21" t="n">
-        <v>1080.505836134805</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P21" t="n">
-        <v>1215.006905328178</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q21" t="n">
-        <v>1629.01068086594</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R21" t="n">
         <v>1672.742527425299</v>
@@ -5873,10 +5873,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X21" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y21" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="22">
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>203.2128542977687</v>
+        <v>573.2882430288385</v>
       </c>
       <c r="C22" t="n">
-        <v>203.2128542977687</v>
+        <v>573.2882430288385</v>
       </c>
       <c r="D22" t="n">
-        <v>203.2128542977687</v>
+        <v>573.2882430288385</v>
       </c>
       <c r="E22" t="n">
-        <v>33.45485054850598</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="F22" t="n">
-        <v>33.45485054850598</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="G22" t="n">
-        <v>33.45485054850598</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H22" t="n">
-        <v>33.45485054850598</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I22" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J22" t="n">
         <v>161.7834697148434</v>
       </c>
       <c r="K22" t="n">
-        <v>505.1482476164479</v>
+        <v>230.3897930453123</v>
       </c>
       <c r="L22" t="n">
-        <v>769.1447895942085</v>
+        <v>318.1822665779014</v>
       </c>
       <c r="M22" t="n">
-        <v>861.7096435212253</v>
+        <v>732.1860421156629</v>
       </c>
       <c r="N22" t="n">
-        <v>952.0735121144789</v>
+        <v>822.5499107089167</v>
       </c>
       <c r="O22" t="n">
-        <v>1035.539170576305</v>
+        <v>1236.553686246678</v>
       </c>
       <c r="P22" t="n">
         <v>1449.542946114066</v>
@@ -5937,25 +5937,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S22" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T22" t="n">
-        <v>1477.805277447886</v>
+        <v>1297.454124543983</v>
       </c>
       <c r="U22" t="n">
-        <v>1199.405140226621</v>
+        <v>1297.454124543983</v>
       </c>
       <c r="V22" t="n">
-        <v>912.4496320970518</v>
+        <v>1010.498616414413</v>
       </c>
       <c r="W22" t="n">
-        <v>640.4232276833434</v>
+        <v>1010.498616414413</v>
       </c>
       <c r="X22" t="n">
-        <v>395.0314730167559</v>
+        <v>765.1068617478256</v>
       </c>
       <c r="Y22" t="n">
-        <v>395.0314730167559</v>
+        <v>765.1068617478256</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>731.2390367702199</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="C23" t="n">
-        <v>308.8293076224172</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="D23" t="n">
-        <v>308.8293076224172</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="E23" t="n">
-        <v>308.8293076224172</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="F23" t="n">
-        <v>308.8293076224172</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G23" t="n">
         <v>308.8293076224172</v>
       </c>
       <c r="H23" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I23" t="n">
-        <v>83.79828774524184</v>
+        <v>83.79828774524178</v>
       </c>
       <c r="J23" t="n">
         <v>195.5292216073323</v>
@@ -5995,16 +5995,16 @@
         <v>362.9849282099026</v>
       </c>
       <c r="L23" t="n">
-        <v>570.7285396968682</v>
+        <v>570.7285396968683</v>
       </c>
       <c r="M23" t="n">
-        <v>801.8833353847198</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N23" t="n">
-        <v>1036.778457331699</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O23" t="n">
-        <v>1258.583260144775</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P23" t="n">
         <v>1447.888527710259</v>
@@ -6013,28 +6013,28 @@
         <v>1590.048899840627</v>
       </c>
       <c r="R23" t="n">
-        <v>1672.742527425298</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S23" t="n">
-        <v>1672.742527425298</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T23" t="n">
-        <v>1672.742527425298</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U23" t="n">
-        <v>1516.265715984196</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V23" t="n">
-        <v>1153.648765918022</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="W23" t="n">
-        <v>1153.648765918022</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="X23" t="n">
-        <v>1153.648765918022</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="Y23" t="n">
-        <v>1153.648765918022</v>
+        <v>783.7787279056888</v>
       </c>
     </row>
     <row r="24">
@@ -6056,22 +6056,22 @@
         <v>236.300059145395</v>
       </c>
       <c r="F24" t="n">
-        <v>152.9162207615566</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G24" t="n">
-        <v>68.2497881259455</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H24" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I24" t="n">
-        <v>83.769371087529</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J24" t="n">
-        <v>474.8738748284773</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K24" t="n">
-        <v>605.2485493631992</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L24" t="n">
         <v>758.1833518442032</v>
@@ -6086,7 +6086,7 @@
         <v>1287.426430762205</v>
       </c>
       <c r="P24" t="n">
-        <v>1421.927499955578</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q24" t="n">
         <v>1511.8379027716</v>
@@ -6098,7 +6098,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T24" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U24" t="n">
         <v>1319.064612101715</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>607.9408069748636</v>
+        <v>1088.435001382335</v>
       </c>
       <c r="C25" t="n">
-        <v>435.3790954580885</v>
+        <v>915.8732898655595</v>
       </c>
       <c r="D25" t="n">
-        <v>269.5011026596112</v>
+        <v>749.9952970670822</v>
       </c>
       <c r="E25" t="n">
-        <v>99.74309891034846</v>
+        <v>580.2372933178194</v>
       </c>
       <c r="F25" t="n">
-        <v>99.74309891034846</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="G25" t="n">
-        <v>33.45485054850597</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H25" t="n">
-        <v>33.45485054850597</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I25" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J25" t="n">
-        <v>75.20378455015356</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K25" t="n">
-        <v>192.7956718448431</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L25" t="n">
-        <v>606.7994473826044</v>
+        <v>769.1447895942089</v>
       </c>
       <c r="M25" t="n">
-        <v>699.3643013096212</v>
+        <v>861.7096435212255</v>
       </c>
       <c r="N25" t="n">
-        <v>789.7281699028748</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O25" t="n">
-        <v>1203.731945440636</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P25" t="n">
-        <v>1617.735720978397</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q25" t="n">
-        <v>1667.182735391304</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R25" t="n">
-        <v>1672.742527425298</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S25" t="n">
-        <v>1672.742527425298</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T25" t="n">
-        <v>1672.742527425298</v>
+        <v>1366.835138603599</v>
       </c>
       <c r="U25" t="n">
-        <v>1394.342390204033</v>
+        <v>1088.435001382335</v>
       </c>
       <c r="V25" t="n">
-        <v>1107.386882074464</v>
+        <v>1088.435001382335</v>
       </c>
       <c r="W25" t="n">
-        <v>835.3604776607554</v>
+        <v>1088.435001382335</v>
       </c>
       <c r="X25" t="n">
-        <v>835.3604776607554</v>
+        <v>1088.435001382335</v>
       </c>
       <c r="Y25" t="n">
-        <v>607.9408069748636</v>
+        <v>1088.435001382335</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1672.742527425299</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="C26" t="n">
-        <v>1300.684037991914</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="D26" t="n">
-        <v>878.2743088441117</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="E26" t="n">
-        <v>455.8645796963089</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F26" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G26" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H26" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I26" t="n">
-        <v>83.79828774524233</v>
+        <v>83.79828774524179</v>
       </c>
       <c r="J26" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073323</v>
       </c>
       <c r="K26" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099026</v>
       </c>
       <c r="L26" t="n">
-        <v>570.728539696869</v>
+        <v>570.7285396968683</v>
       </c>
       <c r="M26" t="n">
-        <v>801.8833353847205</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N26" t="n">
         <v>1036.7784573317</v>
@@ -6253,25 +6253,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S26" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T26" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U26" t="n">
-        <v>1672.742527425299</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V26" t="n">
-        <v>1672.742527425299</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="W26" t="n">
-        <v>1672.742527425299</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="X26" t="n">
-        <v>1672.742527425299</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="Y26" t="n">
-        <v>1672.742527425299</v>
+        <v>455.8645796963089</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H27" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I27" t="n">
-        <v>83.76937108752901</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J27" t="n">
-        <v>150.3155498622651</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K27" t="n">
-        <v>264.0535687076973</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L27" t="n">
-        <v>416.9883711887013</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M27" t="n">
-        <v>595.4560722154179</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N27" t="n">
-        <v>1009.459847753179</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O27" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P27" t="n">
-        <v>1421.927499955578</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q27" t="n">
         <v>1511.8379027716</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1088.435001382335</v>
+        <v>615.4498774351036</v>
       </c>
       <c r="C28" t="n">
-        <v>915.8732898655595</v>
+        <v>615.4498774351036</v>
       </c>
       <c r="D28" t="n">
-        <v>749.9952970670822</v>
+        <v>615.4498774351036</v>
       </c>
       <c r="E28" t="n">
-        <v>580.2372933178194</v>
+        <v>445.6918736858408</v>
       </c>
       <c r="F28" t="n">
-        <v>403.5302392795757</v>
+        <v>268.984819647597</v>
       </c>
       <c r="G28" t="n">
-        <v>238.5414622752818</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="H28" t="n">
         <v>103.9960426433032</v>
       </c>
       <c r="I28" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J28" t="n">
-        <v>75.20378455015356</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K28" t="n">
         <v>143.8101078806224</v>
       </c>
       <c r="L28" t="n">
-        <v>557.8138834183839</v>
+        <v>231.6025814132115</v>
       </c>
       <c r="M28" t="n">
-        <v>971.8176589561454</v>
+        <v>324.1674353402283</v>
       </c>
       <c r="N28" t="n">
-        <v>1385.821434493907</v>
+        <v>621.5353950385435</v>
       </c>
       <c r="O28" t="n">
-        <v>1546.316431026242</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P28" t="n">
-        <v>1617.735720978398</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q28" t="n">
         <v>1667.182735391305</v>
@@ -6411,25 +6411,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S28" t="n">
-        <v>1524.001055161996</v>
+        <v>1564.948811883434</v>
       </c>
       <c r="T28" t="n">
-        <v>1524.001055161996</v>
+        <v>1321.643674969552</v>
       </c>
       <c r="U28" t="n">
-        <v>1524.001055161996</v>
+        <v>1321.643674969552</v>
       </c>
       <c r="V28" t="n">
-        <v>1237.045547032427</v>
+        <v>1034.688166839983</v>
       </c>
       <c r="W28" t="n">
-        <v>1088.435001382335</v>
+        <v>1034.688166839983</v>
       </c>
       <c r="X28" t="n">
-        <v>1088.435001382335</v>
+        <v>1034.688166839983</v>
       </c>
       <c r="Y28" t="n">
-        <v>1088.435001382335</v>
+        <v>807.2684961540908</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1672.742527425299</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="C29" t="n">
-        <v>1300.684037991914</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="D29" t="n">
-        <v>878.2743088441117</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="E29" t="n">
-        <v>455.8645796963089</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="F29" t="n">
-        <v>33.45485054850598</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G29" t="n">
-        <v>33.45485054850598</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H29" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I29" t="n">
-        <v>83.79828774524256</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J29" t="n">
-        <v>195.5292216073331</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K29" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L29" t="n">
-        <v>570.7285396968691</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M29" t="n">
-        <v>801.8833353847207</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N29" t="n">
         <v>1036.7784573317</v>
@@ -6490,25 +6490,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S29" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T29" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U29" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="V29" t="n">
-        <v>1672.742527425299</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="W29" t="n">
-        <v>1672.742527425299</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="X29" t="n">
-        <v>1672.742527425299</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="Y29" t="n">
-        <v>1672.742527425299</v>
+        <v>1042.893577318941</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H30" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I30" t="n">
-        <v>83.76937108752901</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J30" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K30" t="n">
-        <v>605.2485493631992</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L30" t="n">
-        <v>758.1833518442032</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M30" t="n">
-        <v>936.6510528709197</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N30" t="n">
-        <v>1119.842262896595</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O30" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P30" t="n">
-        <v>1421.927499955578</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q30" t="n">
         <v>1511.8379027716</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>368.2016313020625</v>
+        <v>721.7140057048364</v>
       </c>
       <c r="C31" t="n">
-        <v>368.2016313020625</v>
+        <v>549.1522941880613</v>
       </c>
       <c r="D31" t="n">
-        <v>368.2016313020625</v>
+        <v>383.274301389584</v>
       </c>
       <c r="E31" t="n">
-        <v>198.4436275527998</v>
+        <v>383.274301389584</v>
       </c>
       <c r="F31" t="n">
-        <v>198.4436275527998</v>
+        <v>383.274301389584</v>
       </c>
       <c r="G31" t="n">
-        <v>33.45485054850598</v>
+        <v>218.2855243852902</v>
       </c>
       <c r="H31" t="n">
-        <v>33.45485054850598</v>
+        <v>83.74010475331158</v>
       </c>
       <c r="I31" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J31" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K31" t="n">
-        <v>505.1482476164479</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L31" t="n">
-        <v>606.7994473826049</v>
+        <v>459.7522364931334</v>
       </c>
       <c r="M31" t="n">
-        <v>699.3643013096216</v>
+        <v>873.7560120308949</v>
       </c>
       <c r="N31" t="n">
-        <v>789.7281699028753</v>
+        <v>964.1198806241488</v>
       </c>
       <c r="O31" t="n">
-        <v>1203.731945440637</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P31" t="n">
-        <v>1617.735720978398</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q31" t="n">
         <v>1667.182735391305</v>
@@ -6648,25 +6648,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S31" t="n">
-        <v>1591.813587916807</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T31" t="n">
-        <v>1591.813587916807</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U31" t="n">
-        <v>1591.813587916807</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.858079787237</v>
+        <v>993.7404101185448</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.831675373529</v>
+        <v>721.7140057048364</v>
       </c>
       <c r="X31" t="n">
-        <v>787.4399207069414</v>
+        <v>721.7140057048364</v>
       </c>
       <c r="Y31" t="n">
-        <v>560.0202500210496</v>
+        <v>721.7140057048364</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>831.1903348568068</v>
+        <v>997.966246429572</v>
       </c>
       <c r="C32" t="n">
-        <v>831.1903348568068</v>
+        <v>575.5565172817692</v>
       </c>
       <c r="D32" t="n">
-        <v>831.1903348568068</v>
+        <v>575.5565172817692</v>
       </c>
       <c r="E32" t="n">
-        <v>831.1903348568068</v>
+        <v>575.5565172817692</v>
       </c>
       <c r="F32" t="n">
-        <v>433.509516053608</v>
+        <v>575.5565172817692</v>
       </c>
       <c r="G32" t="n">
-        <v>33.45485054850597</v>
+        <v>175.5018517766671</v>
       </c>
       <c r="H32" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I32" t="n">
-        <v>83.79828774524199</v>
+        <v>83.79828774524179</v>
       </c>
       <c r="J32" t="n">
-        <v>195.5292216073326</v>
+        <v>195.5292216073323</v>
       </c>
       <c r="K32" t="n">
-        <v>362.9849282099029</v>
+        <v>362.9849282099026</v>
       </c>
       <c r="L32" t="n">
-        <v>570.7285396968686</v>
+        <v>570.7285396968683</v>
       </c>
       <c r="M32" t="n">
-        <v>801.8833353847201</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N32" t="n">
         <v>1036.7784573317</v>
@@ -6727,25 +6727,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S32" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T32" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U32" t="n">
-        <v>1672.742527425299</v>
+        <v>1360.583196495746</v>
       </c>
       <c r="V32" t="n">
-        <v>1672.742527425299</v>
+        <v>997.966246429572</v>
       </c>
       <c r="W32" t="n">
-        <v>1672.742527425299</v>
+        <v>997.966246429572</v>
       </c>
       <c r="X32" t="n">
-        <v>1253.60006400461</v>
+        <v>997.966246429572</v>
       </c>
       <c r="Y32" t="n">
-        <v>1253.60006400461</v>
+        <v>997.966246429572</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H33" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I33" t="n">
-        <v>83.769371087529</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J33" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K33" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631987</v>
       </c>
       <c r="L33" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442028</v>
       </c>
       <c r="M33" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N33" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O33" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P33" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q33" t="n">
         <v>1511.8379027716</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33.45485054850597</v>
+        <v>718.3596126512649</v>
       </c>
       <c r="C34" t="n">
-        <v>33.45485054850597</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="D34" t="n">
-        <v>33.45485054850597</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E34" t="n">
-        <v>33.45485054850597</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F34" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G34" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H34" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I34" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J34" t="n">
-        <v>75.20378455015356</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K34" t="n">
-        <v>143.8101078806224</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L34" t="n">
-        <v>231.6025814132115</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M34" t="n">
-        <v>375.7243943651138</v>
+        <v>1006.944496686799</v>
       </c>
       <c r="N34" t="n">
-        <v>789.7281699028752</v>
+        <v>1097.308365280052</v>
       </c>
       <c r="O34" t="n">
-        <v>1203.731945440637</v>
+        <v>1180.774023741878</v>
       </c>
       <c r="P34" t="n">
-        <v>1617.735720978398</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q34" t="n">
         <v>1667.182735391305</v>
@@ -6885,25 +6885,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S34" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T34" t="n">
-        <v>1429.437390511417</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U34" t="n">
-        <v>1257.06680716325</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="V34" t="n">
-        <v>970.1112990336808</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="W34" t="n">
-        <v>698.0848946199724</v>
+        <v>1137.597902056144</v>
       </c>
       <c r="X34" t="n">
-        <v>452.6931399533848</v>
+        <v>1137.597902056144</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.2734692674931</v>
+        <v>910.178231370252</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1250.332798277496</v>
+        <v>1131.293702275322</v>
       </c>
       <c r="C35" t="n">
-        <v>827.9230691296932</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D35" t="n">
-        <v>405.5133399818904</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E35" t="n">
-        <v>33.45485054850598</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F35" t="n">
-        <v>33.45485054850598</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G35" t="n">
-        <v>33.45485054850598</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H35" t="n">
         <v>33.45485054850598</v>
       </c>
       <c r="I35" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J35" t="n">
         <v>195.5292216073325</v>
       </c>
       <c r="K35" t="n">
-        <v>362.9849282099029</v>
+        <v>362.9849282099028</v>
       </c>
       <c r="L35" t="n">
-        <v>570.7285396968686</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M35" t="n">
         <v>801.8833353847201</v>
@@ -6967,22 +6967,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T35" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U35" t="n">
-        <v>1672.742527425299</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V35" t="n">
-        <v>1672.742527425299</v>
+        <v>1131.293702275322</v>
       </c>
       <c r="W35" t="n">
-        <v>1672.742527425299</v>
+        <v>1131.293702275322</v>
       </c>
       <c r="X35" t="n">
-        <v>1672.742527425299</v>
+        <v>1131.293702275322</v>
       </c>
       <c r="Y35" t="n">
-        <v>1672.742527425299</v>
+        <v>1131.293702275322</v>
       </c>
     </row>
     <row r="36">
@@ -7019,13 +7019,13 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K36" t="n">
-        <v>605.2485493631991</v>
+        <v>605.2485493631987</v>
       </c>
       <c r="L36" t="n">
-        <v>758.1833518442032</v>
+        <v>758.1833518442028</v>
       </c>
       <c r="M36" t="n">
-        <v>936.6510528709197</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N36" t="n">
         <v>1119.842262896595</v>
@@ -7095,19 +7095,19 @@
         <v>33.45485054850598</v>
       </c>
       <c r="J37" t="n">
-        <v>75.20378455015357</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K37" t="n">
-        <v>143.8101078806224</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L37" t="n">
-        <v>285.3605257718598</v>
+        <v>919.1520231542094</v>
       </c>
       <c r="M37" t="n">
-        <v>699.3643013096213</v>
+        <v>1029.902418385557</v>
       </c>
       <c r="N37" t="n">
-        <v>789.728169902875</v>
+        <v>1120.266286978811</v>
       </c>
       <c r="O37" t="n">
         <v>1203.731945440637</v>
@@ -7122,25 +7122,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S37" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T37" t="n">
-        <v>1672.742527425299</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U37" t="n">
-        <v>1469.16014391353</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="V37" t="n">
-        <v>1182.20463578396</v>
+        <v>993.7404101185446</v>
       </c>
       <c r="W37" t="n">
-        <v>910.178231370252</v>
+        <v>993.7404101185446</v>
       </c>
       <c r="X37" t="n">
-        <v>910.178231370252</v>
+        <v>748.348655451957</v>
       </c>
       <c r="Y37" t="n">
-        <v>910.178231370252</v>
+        <v>748.348655451957</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1250.332798277497</v>
+        <v>433.509516053608</v>
       </c>
       <c r="C38" t="n">
-        <v>1250.332798277497</v>
+        <v>433.509516053608</v>
       </c>
       <c r="D38" t="n">
-        <v>827.9230691296937</v>
+        <v>433.509516053608</v>
       </c>
       <c r="E38" t="n">
-        <v>405.5133399818907</v>
+        <v>433.509516053608</v>
       </c>
       <c r="F38" t="n">
-        <v>33.45485054850599</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G38" t="n">
         <v>33.45485054850599</v>
@@ -7171,19 +7171,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I38" t="n">
-        <v>83.79828774524252</v>
+        <v>83.79828774524199</v>
       </c>
       <c r="J38" t="n">
-        <v>195.5292216073331</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K38" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L38" t="n">
-        <v>570.728539696869</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M38" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847202</v>
       </c>
       <c r="N38" t="n">
         <v>1036.7784573317</v>
@@ -7195,31 +7195,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q38" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R38" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S38" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T38" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U38" t="n">
-        <v>1672.742527425299</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V38" t="n">
-        <v>1672.742527425299</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="W38" t="n">
-        <v>1672.742527425299</v>
+        <v>741.5402233828956</v>
       </c>
       <c r="X38" t="n">
-        <v>1672.742527425299</v>
+        <v>741.5402233828956</v>
       </c>
       <c r="Y38" t="n">
-        <v>1672.742527425299</v>
+        <v>741.5402233828956</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C39" t="n">
-        <v>425.5107626718881</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D39" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E39" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F39" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G39" t="n">
         <v>68.24978812594551</v>
@@ -7271,7 +7271,7 @@
         <v>1287.426430762205</v>
       </c>
       <c r="P39" t="n">
-        <v>1421.927499955578</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q39" t="n">
         <v>1511.8379027716</v>
@@ -7292,13 +7292,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W39" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X39" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y39" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33.45485054850599</v>
+        <v>915.8732898655595</v>
       </c>
       <c r="C40" t="n">
-        <v>33.45485054850599</v>
+        <v>915.8732898655595</v>
       </c>
       <c r="D40" t="n">
-        <v>33.45485054850599</v>
+        <v>749.9952970670822</v>
       </c>
       <c r="E40" t="n">
-        <v>33.45485054850599</v>
+        <v>580.2372933178194</v>
       </c>
       <c r="F40" t="n">
-        <v>33.45485054850599</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="G40" t="n">
-        <v>33.45485054850599</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H40" t="n">
-        <v>33.45485054850599</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I40" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="J40" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K40" t="n">
-        <v>143.8101078806224</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L40" t="n">
-        <v>231.6025814132115</v>
+        <v>769.1447895942089</v>
       </c>
       <c r="M40" t="n">
-        <v>324.1674353402283</v>
+        <v>861.7096435212255</v>
       </c>
       <c r="N40" t="n">
-        <v>738.1712108779898</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O40" t="n">
-        <v>1152.174986415751</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P40" t="n">
         <v>1449.542946114066</v>
@@ -7359,25 +7359,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S40" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T40" t="n">
-        <v>1429.437390511417</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U40" t="n">
-        <v>1257.06680716325</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="V40" t="n">
-        <v>970.1112990336808</v>
+        <v>993.7404101185448</v>
       </c>
       <c r="W40" t="n">
-        <v>698.0848946199724</v>
+        <v>915.8732898655595</v>
       </c>
       <c r="X40" t="n">
-        <v>452.6931399533848</v>
+        <v>915.8732898655595</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.2734692674931</v>
+        <v>915.8732898655595</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>845.3139403042629</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="C41" t="n">
-        <v>845.3139403042629</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D41" t="n">
-        <v>845.3139403042629</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E41" t="n">
-        <v>422.9042111564601</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F41" t="n">
-        <v>33.45485054850598</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G41" t="n">
-        <v>33.45485054850598</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H41" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I41" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524178</v>
       </c>
       <c r="J41" t="n">
-        <v>195.5292216073325</v>
+        <v>195.5292216073323</v>
       </c>
       <c r="K41" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099026</v>
       </c>
       <c r="L41" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968683</v>
       </c>
       <c r="M41" t="n">
         <v>801.88333538472</v>
@@ -7441,22 +7441,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T41" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U41" t="n">
-        <v>1672.742527425299</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V41" t="n">
-        <v>1672.742527425299</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="W41" t="n">
-        <v>1672.742527425299</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="X41" t="n">
-        <v>1253.60006400461</v>
+        <v>1117.170096827866</v>
       </c>
       <c r="Y41" t="n">
-        <v>845.3139403042629</v>
+        <v>708.8839731275193</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H42" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I42" t="n">
         <v>83.76937108752902</v>
@@ -7493,22 +7493,22 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K42" t="n">
-        <v>605.2485493631991</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L42" t="n">
-        <v>758.1833518442032</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M42" t="n">
-        <v>936.6510528709197</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N42" t="n">
-        <v>1119.842262896595</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O42" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P42" t="n">
-        <v>1421.927499955578</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q42" t="n">
         <v>1511.8379027716</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.1569752242629</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="C43" t="n">
-        <v>548.5952637074878</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="D43" t="n">
-        <v>382.7172709090105</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E43" t="n">
-        <v>212.9592671597478</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F43" t="n">
-        <v>36.25221312150396</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G43" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H43" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I43" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J43" t="n">
-        <v>75.20378455015357</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K43" t="n">
-        <v>143.8101078806224</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L43" t="n">
-        <v>304.3051044129574</v>
+        <v>769.1447895942089</v>
       </c>
       <c r="M43" t="n">
-        <v>718.3088799507188</v>
+        <v>861.7096435212255</v>
       </c>
       <c r="N43" t="n">
-        <v>1132.31265548848</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O43" t="n">
-        <v>1546.316431026242</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P43" t="n">
-        <v>1617.735720978398</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q43" t="n">
         <v>1667.182735391305</v>
@@ -7596,25 +7596,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S43" t="n">
-        <v>1672.742527425299</v>
+        <v>1584.921334349933</v>
       </c>
       <c r="T43" t="n">
-        <v>1672.742527425299</v>
+        <v>1341.616197436051</v>
       </c>
       <c r="U43" t="n">
-        <v>1672.742527425299</v>
+        <v>1063.216060214786</v>
       </c>
       <c r="V43" t="n">
-        <v>1385.787019295729</v>
+        <v>1063.216060214786</v>
       </c>
       <c r="W43" t="n">
-        <v>1385.787019295729</v>
+        <v>791.1896558010774</v>
       </c>
       <c r="X43" t="n">
-        <v>1140.395264629142</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="Y43" t="n">
-        <v>912.97559394325</v>
+        <v>545.7979011344898</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>845.3139403042634</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="C44" t="n">
-        <v>845.3139403042634</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D44" t="n">
-        <v>845.3139403042634</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E44" t="n">
-        <v>422.9042111564605</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F44" t="n">
-        <v>33.45485054850598</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G44" t="n">
-        <v>33.45485054850598</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H44" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I44" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524178</v>
       </c>
       <c r="J44" t="n">
-        <v>195.5292216073325</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K44" t="n">
-        <v>362.9849282099029</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L44" t="n">
-        <v>570.7285396968686</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M44" t="n">
-        <v>801.8833353847202</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N44" t="n">
         <v>1036.7784573317</v>
@@ -7681,19 +7681,19 @@
         <v>1672.742527425299</v>
       </c>
       <c r="U44" t="n">
-        <v>1672.742527425299</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="V44" t="n">
-        <v>1672.742527425299</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="W44" t="n">
-        <v>1672.742527425299</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="X44" t="n">
-        <v>1253.60006400461</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="Y44" t="n">
-        <v>845.3139403042634</v>
+        <v>708.8839731275193</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H45" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I45" t="n">
         <v>83.76937108752902</v>
       </c>
       <c r="J45" t="n">
-        <v>474.8738748284774</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K45" t="n">
-        <v>605.2485493631989</v>
+        <v>264.0535687076974</v>
       </c>
       <c r="L45" t="n">
-        <v>758.183351844203</v>
+        <v>416.9883711887014</v>
       </c>
       <c r="M45" t="n">
-        <v>936.6510528709194</v>
+        <v>595.4560722154181</v>
       </c>
       <c r="N45" t="n">
-        <v>1119.842262896595</v>
+        <v>778.6472822410934</v>
       </c>
       <c r="O45" t="n">
-        <v>1287.426430762205</v>
+        <v>946.2314501067035</v>
       </c>
       <c r="P45" t="n">
-        <v>1421.927499955578</v>
+        <v>1097.834127233838</v>
       </c>
       <c r="Q45" t="n">
         <v>1511.8379027716</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>883.3483896555588</v>
+        <v>486.407209218686</v>
       </c>
       <c r="C46" t="n">
-        <v>710.7866781387837</v>
+        <v>486.407209218686</v>
       </c>
       <c r="D46" t="n">
-        <v>544.9086853403064</v>
+        <v>486.407209218686</v>
       </c>
       <c r="E46" t="n">
-        <v>375.1506815910436</v>
+        <v>316.6492054694232</v>
       </c>
       <c r="F46" t="n">
-        <v>198.4436275527998</v>
+        <v>139.9421514311794</v>
       </c>
       <c r="G46" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H46" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I46" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J46" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K46" t="n">
-        <v>418.568562451758</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L46" t="n">
-        <v>769.1447895942084</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M46" t="n">
-        <v>861.7096435212252</v>
+        <v>861.7096435212255</v>
       </c>
       <c r="N46" t="n">
-        <v>952.0735121144789</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O46" t="n">
         <v>1035.539170576305</v>
@@ -7836,22 +7836,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T46" t="n">
-        <v>1547.978433727025</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U46" t="n">
-        <v>1547.978433727025</v>
+        <v>1151.037253290152</v>
       </c>
       <c r="V46" t="n">
-        <v>1547.978433727025</v>
+        <v>1151.037253290152</v>
       </c>
       <c r="W46" t="n">
-        <v>1547.978433727025</v>
+        <v>1151.037253290152</v>
       </c>
       <c r="X46" t="n">
-        <v>1302.586679060438</v>
+        <v>905.6454986235649</v>
       </c>
       <c r="Y46" t="n">
-        <v>1075.167008374546</v>
+        <v>678.2258279376731</v>
       </c>
     </row>
   </sheetData>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>16.80470271645413</v>
       </c>
       <c r="Q12" t="n">
-        <v>16.8047027164537</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8853,10 +8853,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>329.5063656617905</v>
       </c>
       <c r="M13" t="n">
-        <v>177.9839075203751</v>
+        <v>324.6857794047928</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8865,10 +8865,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>346.0449349349549</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>39.72838917090098</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>16.80470271645406</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9090,7 +9090,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>177.9839075203754</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>16.8047027164539</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>177.9839075203755</v>
+        <v>329.5063656617904</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>18.3692336407388</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>346.0449349349549</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>161.9576355439989</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.3670431532728</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,22 +9561,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>177.9839075203753</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>324.6857794047927</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P22" t="n">
-        <v>346.0449349349548</v>
+        <v>142.9999696113455</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>16.80470271645413</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>49.48036764062697</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>329.5063656617901</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>333.8768859352888</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>346.0449349349547</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>233.1440055677638</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>111.4973890337533</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10038,22 +10038,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>329.5063656617904</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>324.6857794047927</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>326.9089969136442</v>
+        <v>209.095041520264</v>
       </c>
       <c r="O28" t="n">
-        <v>77.80741219243419</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>16.80470271645406</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>13.99871336724038</v>
+        <v>230.4541970504261</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>324.6857794047928</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>333.8768859352889</v>
+        <v>333.8768859352888</v>
       </c>
       <c r="P31" t="n">
-        <v>346.0449349349549</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>16.8047027164539</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>52.0777363887733</v>
+        <v>324.6857794047927</v>
       </c>
       <c r="N34" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>333.8768859352887</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>346.0449349349547</v>
+        <v>199.3430630505377</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>16.80470271645392</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>54.30095389762457</v>
+        <v>329.5063656617904</v>
       </c>
       <c r="M37" t="n">
-        <v>324.6857794047926</v>
+        <v>18.36923364073857</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>333.8768859352888</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>346.0449349349549</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>16.80470271645392</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>333.8768859352889</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>228.2309795415745</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>16.80470271645392</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>73.43689191893529</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="M43" t="n">
-        <v>324.6857794047926</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>333.876885935289</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>16.80470271645368</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>17.27435144824381</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.3670431532728</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>265.4381349594559</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>15.57541623208618</v>
+        <v>15.57541623208601</v>
       </c>
       <c r="D11" t="n">
-        <v>13.36505512097517</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>11.25136553696302</v>
+        <v>11.25136553696285</v>
       </c>
       <c r="F11" t="n">
-        <v>55.25085075583377</v>
+        <v>268.6767119681925</v>
       </c>
       <c r="G11" t="n">
         <v>396.054118850051</v>
       </c>
       <c r="H11" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T11" t="n">
         <v>212.0456433386444</v>
@@ -23317,7 +23317,7 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>9.085267785828336</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -23427,16 +23427,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H13" t="n">
         <v>133.1999654356588</v>
       </c>
       <c r="I13" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.8720855447433</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.9059995537724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,19 +23500,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>13.36505512097511</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>5.403123438559476</v>
       </c>
       <c r="G14" t="n">
-        <v>279.7236019310822</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T14" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5237009191198</v>
+        <v>18.90507542162641</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -23664,10 +23664,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>12.11739286206824</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H16" t="n">
         <v>133.1999654356588</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>54.38213657076068</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>391.2590675420618</v>
       </c>
       <c r="G17" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>233.194207552599</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>86.63893768762361</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I19" t="n">
         <v>69.83578017384922</v>
@@ -23940,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.8720855447433</v>
+        <v>96.54926661235172</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.850942923733896</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -23980,7 +23980,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>405.4032062854671</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>121.2962640637197</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24141,13 +24141,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>47.88420806710457</v>
+        <v>16.59062423290979</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.850942923734124</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>15.57541623208635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -24217,10 +24217,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>349.4429480644965</v>
       </c>
       <c r="G23" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>101.6116575924287</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>97.71352335602683</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.8720855447433</v>
+        <v>85.27782815193035</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24445,16 +24445,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>65.42314354936008</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>13.36505512097511</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>11.25136553696296</v>
+        <v>11.25136553696291</v>
       </c>
       <c r="F26" t="n">
-        <v>5.403123438559533</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>396.054118850051</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>76.1718933157909</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>40.53827915422335</v>
       </c>
       <c r="T28" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6161358490523</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>122.1817001759803</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,22 +24682,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>65.42314354936008</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>13.36505512097511</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>11.25136553696296</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>5.403123438559533</v>
+        <v>92.91924714537669</v>
       </c>
       <c r="G29" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.5237009191198</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>69.83578017384922</v>
+        <v>20.05337851109168</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>67.13440742726252</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6161358490523</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.85094292373401</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24928,13 +24928,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>29.88474467971758</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>272.6207125031721</v>
+        <v>131.9941812872926</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.3388892342509</v>
@@ -25125,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>104.9692583343677</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>127.6391043395205</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.850942923733953</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>15.57541623208618</v>
+        <v>15.57541623208613</v>
       </c>
       <c r="D35" t="n">
-        <v>13.36505512097517</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>61.0990928542372</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T35" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>291.5257879247988</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>160.2112801591121</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>74.069576172401</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.85094292373384</v>
+        <v>117.0861745240639</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>11.25136553696291</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>55.25085075583343</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>272.6207125031721</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>104.969258334367</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>192.217691319116</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25636,16 +25636,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>11.25136553696302</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>38.03388829300974</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T41" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25693,7 +25693,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>333.5036767527876</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.5695002869829</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H43" t="n">
         <v>133.1999654356588</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>147.2540575406698</v>
+        <v>60.31107639605688</v>
       </c>
       <c r="T43" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25873,16 +25873,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>11.25136553696296</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>38.03388829300934</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>212.0456433386444</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>76.24555151631182</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.91646136040418</v>
       </c>
       <c r="H46" t="n">
         <v>133.1999654356588</v>
@@ -26076,10 +26076,10 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T46" t="n">
-        <v>117.3556327834522</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>334107.5032334131</v>
+        <v>334107.5032334132</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>334107.503233413</v>
+        <v>334107.5032334132</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>334107.503233413</v>
+        <v>334107.5032334132</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>334107.5032334132</v>
+        <v>334107.5032334131</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>334107.5032334132</v>
+        <v>334107.5032334131</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>334107.5032334132</v>
+        <v>334107.5032334131</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>334107.503233413</v>
+        <v>334107.5032334132</v>
       </c>
     </row>
     <row r="16">
@@ -26334,7 +26334,7 @@
         <v>103464.9542517201</v>
       </c>
       <c r="I2" t="n">
-        <v>103464.95425172</v>
+        <v>103464.9542517201</v>
       </c>
       <c r="J2" t="n">
         <v>103464.9542517201</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>390603.752983759</v>
+        <v>390603.7529837592</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>11902.92322350585</v>
+        <v>11902.92322350586</v>
       </c>
       <c r="F4" t="n">
         <v>11902.92322350586</v>
       </c>
       <c r="G4" t="n">
+        <v>11902.92322350585</v>
+      </c>
+      <c r="H4" t="n">
         <v>11902.92322350586</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11902.92322350585</v>
       </c>
       <c r="I4" t="n">
         <v>11902.92322350586</v>
       </c>
       <c r="J4" t="n">
-        <v>11902.92322350586</v>
+        <v>11902.92322350585</v>
       </c>
       <c r="K4" t="n">
-        <v>11902.92322350586</v>
+        <v>11902.92322350585</v>
       </c>
       <c r="L4" t="n">
         <v>11902.92322350585</v>
       </c>
       <c r="M4" t="n">
-        <v>11902.92322350586</v>
+        <v>11902.92322350585</v>
       </c>
       <c r="N4" t="n">
         <v>11902.92322350586</v>
       </c>
       <c r="O4" t="n">
-        <v>11902.92322350586</v>
+        <v>11902.92322350585</v>
       </c>
       <c r="P4" t="n">
         <v>11902.92322350585</v>
@@ -26478,37 +26478,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="F5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="G5" t="n">
         <v>32636.50261996421</v>
       </c>
       <c r="H5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="I5" t="n">
-        <v>32636.50261996419</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="J5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="K5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="L5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="M5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="N5" t="n">
         <v>32636.50261996421</v>
       </c>
       <c r="O5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="P5" t="n">
         <v>32636.50261996421</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-331678.224575509</v>
+        <v>-332409.9754972838</v>
       </c>
       <c r="F6" t="n">
-        <v>58925.52840825004</v>
+        <v>58193.77748647532</v>
       </c>
       <c r="G6" t="n">
-        <v>58925.52840825007</v>
+        <v>58193.77748647529</v>
       </c>
       <c r="H6" t="n">
-        <v>58925.52840825007</v>
+        <v>58193.77748647531</v>
       </c>
       <c r="I6" t="n">
-        <v>58925.52840825</v>
+        <v>58193.77748647531</v>
       </c>
       <c r="J6" t="n">
-        <v>58925.52840825003</v>
+        <v>58193.77748647529</v>
       </c>
       <c r="K6" t="n">
-        <v>58925.52840825003</v>
+        <v>58193.77748647529</v>
       </c>
       <c r="L6" t="n">
-        <v>58925.52840825002</v>
+        <v>58193.77748647532</v>
       </c>
       <c r="M6" t="n">
-        <v>-45288.00379287357</v>
+        <v>-46019.7547146483</v>
       </c>
       <c r="N6" t="n">
-        <v>58925.52840825002</v>
+        <v>58193.77748647532</v>
       </c>
       <c r="O6" t="n">
-        <v>58925.52840825001</v>
+        <v>58193.77748647529</v>
       </c>
       <c r="P6" t="n">
-        <v>58925.52840825003</v>
+        <v>58193.77748647529</v>
       </c>
     </row>
   </sheetData>
@@ -26746,37 +26746,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="F3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="G3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="H3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="I3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="J3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="K3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="L3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="M3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="N3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="O3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="P3" t="n">
         <v>330.7713854632872</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="F4" t="n">
         <v>418.1856318563248</v>
@@ -26810,7 +26810,7 @@
         <v>418.1856318563248</v>
       </c>
       <c r="I4" t="n">
-        <v>418.1856318563246</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="J4" t="n">
         <v>418.1856318563248</v>
@@ -26819,16 +26819,16 @@
         <v>418.1856318563248</v>
       </c>
       <c r="L4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N4" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="O4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P4" t="n">
         <v>418.1856318563248</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I11" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J11" t="n">
         <v>112.8595291536268</v>
@@ -31767,13 +31767,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L11" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N11" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O11" t="n">
         <v>224.0452553667434</v>
@@ -31785,13 +31785,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R11" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S11" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T11" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U11" t="n">
         <v>0.1063787370334189</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H12" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I12" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J12" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K12" t="n">
         <v>114.8868877226589</v>
@@ -31861,10 +31861,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R12" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S12" t="n">
         <v>13.21525299468887</v>
@@ -31873,7 +31873,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H13" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I13" t="n">
         <v>17.9375695592222</v>
@@ -31922,25 +31922,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K13" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L13" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M13" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N13" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O13" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P13" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R13" t="n">
         <v>26.81959463117078</v>
@@ -31952,7 +31952,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I14" t="n">
-        <v>51.26457824351106</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J14" t="n">
         <v>112.8595291536268</v>
@@ -32004,31 +32004,31 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L14" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M14" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N14" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O14" t="n">
         <v>224.0452553667434</v>
       </c>
       <c r="P14" t="n">
-        <v>191.2174419853367</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q14" t="n">
         <v>143.5963354852203</v>
       </c>
       <c r="R14" t="n">
-        <v>83.52891675219381</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S14" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T14" t="n">
-        <v>5.820911517047392</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U14" t="n">
         <v>0.1063787370334189</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7114705272229194</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H15" t="n">
-        <v>6.871307460284512</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I15" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J15" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K15" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L15" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M15" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N15" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O15" t="n">
-        <v>169.2769372379899</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P15" t="n">
         <v>135.8596658518924</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.81858870305196</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R15" t="n">
-        <v>44.17358238319145</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S15" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T15" t="n">
-        <v>2.867725502271327</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04680727152782366</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5964729901796979</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H16" t="n">
-        <v>5.303187130870409</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I16" t="n">
-        <v>17.93756955922219</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J16" t="n">
-        <v>42.17064040570464</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K16" t="n">
-        <v>69.29931649542307</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L16" t="n">
-        <v>88.67926619453438</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M16" t="n">
-        <v>93.49985245153209</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N16" t="n">
-        <v>91.27663494268056</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O16" t="n">
-        <v>84.30874592103588</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P16" t="n">
-        <v>72.14069692136998</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R16" t="n">
-        <v>26.81959463117077</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S16" t="n">
         <v>10.39489747431346</v>
       </c>
       <c r="T16" t="n">
-        <v>2.548566412585981</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0325348903734381</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I17" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J17" t="n">
         <v>112.8595291536268</v>
@@ -32241,13 +32241,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M17" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N17" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O17" t="n">
         <v>224.0452553667434</v>
@@ -32259,13 +32259,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S17" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T17" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U17" t="n">
         <v>0.1063787370334189</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H18" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I18" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J18" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K18" t="n">
         <v>114.8868877226589</v>
@@ -32335,10 +32335,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R18" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S18" t="n">
         <v>13.21525299468887</v>
@@ -32347,7 +32347,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H19" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I19" t="n">
         <v>17.9375695592222</v>
@@ -32396,25 +32396,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K19" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L19" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M19" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N19" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O19" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P19" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R19" t="n">
         <v>26.81959463117078</v>
@@ -32426,7 +32426,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I20" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J20" t="n">
         <v>112.8595291536268</v>
@@ -32478,13 +32478,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N20" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O20" t="n">
         <v>224.0452553667434</v>
@@ -32496,13 +32496,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S20" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T20" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U20" t="n">
         <v>0.1063787370334189</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H21" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I21" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J21" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K21" t="n">
         <v>114.8868877226589</v>
@@ -32572,10 +32572,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R21" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S21" t="n">
         <v>13.21525299468887</v>
@@ -32584,7 +32584,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H22" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I22" t="n">
         <v>17.9375695592222</v>
@@ -32633,25 +32633,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K22" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L22" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M22" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O22" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P22" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R22" t="n">
         <v>26.81959463117078</v>
@@ -32663,7 +32663,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I23" t="n">
-        <v>51.26457824351106</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J23" t="n">
         <v>112.8595291536268</v>
@@ -32715,31 +32715,31 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L23" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M23" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N23" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O23" t="n">
         <v>224.0452553667434</v>
       </c>
       <c r="P23" t="n">
-        <v>191.2174419853367</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q23" t="n">
         <v>143.5963354852203</v>
       </c>
       <c r="R23" t="n">
-        <v>83.52891675219381</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S23" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T23" t="n">
-        <v>5.820911517047392</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U23" t="n">
         <v>0.1063787370334189</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7114705272229194</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H24" t="n">
-        <v>6.871307460284512</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I24" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J24" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K24" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L24" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M24" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N24" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O24" t="n">
-        <v>169.2769372379899</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P24" t="n">
         <v>135.8596658518924</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.81858870305196</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R24" t="n">
-        <v>44.17358238319145</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S24" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T24" t="n">
-        <v>2.867725502271327</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04680727152782366</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5964729901796979</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H25" t="n">
-        <v>5.303187130870409</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I25" t="n">
-        <v>17.93756955922219</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J25" t="n">
-        <v>42.17064040570464</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K25" t="n">
-        <v>69.29931649542307</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L25" t="n">
-        <v>88.67926619453438</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M25" t="n">
-        <v>93.49985245153209</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N25" t="n">
-        <v>91.27663494268056</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O25" t="n">
-        <v>84.30874592103588</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P25" t="n">
-        <v>72.14069692136998</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R25" t="n">
-        <v>26.81959463117077</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S25" t="n">
         <v>10.39489747431346</v>
       </c>
       <c r="T25" t="n">
-        <v>2.548566412585981</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0325348903734381</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I26" t="n">
-        <v>51.26457824351106</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J26" t="n">
         <v>112.8595291536268</v>
@@ -32952,31 +32952,31 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L26" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N26" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O26" t="n">
         <v>224.0452553667434</v>
       </c>
       <c r="P26" t="n">
-        <v>191.2174419853367</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q26" t="n">
         <v>143.5963354852203</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219381</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T26" t="n">
-        <v>5.820911517047392</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U26" t="n">
         <v>0.1063787370334189</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7114705272229194</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H27" t="n">
-        <v>6.871307460284512</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I27" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J27" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K27" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L27" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M27" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N27" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O27" t="n">
-        <v>169.2769372379899</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P27" t="n">
         <v>135.8596658518924</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.81858870305196</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R27" t="n">
-        <v>44.17358238319145</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S27" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T27" t="n">
-        <v>2.867725502271327</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04680727152782366</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5964729901796979</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H28" t="n">
-        <v>5.303187130870409</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I28" t="n">
-        <v>17.93756955922219</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J28" t="n">
-        <v>42.17064040570464</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K28" t="n">
-        <v>69.29931649542307</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L28" t="n">
-        <v>88.67926619453438</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M28" t="n">
-        <v>93.49985245153209</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N28" t="n">
-        <v>91.27663494268056</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O28" t="n">
-        <v>84.30874592103588</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P28" t="n">
-        <v>72.14069692136998</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R28" t="n">
-        <v>26.81959463117077</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S28" t="n">
         <v>10.39489747431346</v>
       </c>
       <c r="T28" t="n">
-        <v>2.548566412585981</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0325348903734381</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I29" t="n">
-        <v>51.26457824351106</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J29" t="n">
         <v>112.8595291536268</v>
@@ -33189,31 +33189,31 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L29" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M29" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N29" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O29" t="n">
         <v>224.0452553667434</v>
       </c>
       <c r="P29" t="n">
-        <v>191.2174419853367</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q29" t="n">
         <v>143.5963354852203</v>
       </c>
       <c r="R29" t="n">
-        <v>83.52891675219381</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T29" t="n">
-        <v>5.820911517047392</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U29" t="n">
         <v>0.1063787370334189</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7114705272229194</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H30" t="n">
-        <v>6.871307460284512</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I30" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J30" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K30" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L30" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M30" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N30" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O30" t="n">
-        <v>169.2769372379899</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P30" t="n">
         <v>135.8596658518924</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.81858870305196</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R30" t="n">
-        <v>44.17358238319145</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S30" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T30" t="n">
-        <v>2.867725502271327</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04680727152782366</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5964729901796979</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H31" t="n">
-        <v>5.303187130870409</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I31" t="n">
-        <v>17.93756955922219</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J31" t="n">
-        <v>42.17064040570464</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K31" t="n">
-        <v>69.29931649542307</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L31" t="n">
-        <v>88.67926619453438</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M31" t="n">
-        <v>93.49985245153209</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N31" t="n">
-        <v>91.27663494268056</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O31" t="n">
-        <v>84.30874592103588</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P31" t="n">
-        <v>72.14069692136998</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R31" t="n">
-        <v>26.81959463117077</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S31" t="n">
         <v>10.39489747431346</v>
       </c>
       <c r="T31" t="n">
-        <v>2.548566412585981</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0325348903734381</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I32" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J32" t="n">
         <v>112.8595291536268</v>
@@ -33426,13 +33426,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L32" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M32" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N32" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O32" t="n">
         <v>224.0452553667434</v>
@@ -33444,13 +33444,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R32" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T32" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U32" t="n">
         <v>0.1063787370334189</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H33" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I33" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J33" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K33" t="n">
         <v>114.8868877226589</v>
@@ -33520,10 +33520,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R33" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S33" t="n">
         <v>13.21525299468887</v>
@@ -33532,7 +33532,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H34" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I34" t="n">
         <v>17.9375695592222</v>
@@ -33581,25 +33581,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K34" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L34" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M34" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N34" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O34" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P34" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R34" t="n">
         <v>26.81959463117078</v>
@@ -33611,7 +33611,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I35" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J35" t="n">
         <v>112.8595291536268</v>
@@ -33663,13 +33663,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L35" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M35" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N35" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O35" t="n">
         <v>224.0452553667434</v>
@@ -33681,13 +33681,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R35" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S35" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T35" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U35" t="n">
         <v>0.1063787370334189</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H36" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I36" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J36" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K36" t="n">
         <v>114.8868877226589</v>
@@ -33757,10 +33757,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R36" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S36" t="n">
         <v>13.21525299468887</v>
@@ -33769,7 +33769,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H37" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I37" t="n">
         <v>17.9375695592222</v>
@@ -33818,25 +33818,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K37" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L37" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M37" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N37" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O37" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P37" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R37" t="n">
         <v>26.81959463117078</v>
@@ -33848,7 +33848,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I38" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J38" t="n">
         <v>112.8595291536268</v>
@@ -33900,13 +33900,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L38" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M38" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N38" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O38" t="n">
         <v>224.0452553667434</v>
@@ -33918,13 +33918,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R38" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S38" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T38" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U38" t="n">
         <v>0.1063787370334189</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H39" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I39" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J39" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K39" t="n">
         <v>114.8868877226589</v>
@@ -33994,10 +33994,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R39" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S39" t="n">
         <v>13.21525299468887</v>
@@ -34006,7 +34006,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H40" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I40" t="n">
         <v>17.9375695592222</v>
@@ -34055,25 +34055,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K40" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L40" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M40" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N40" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O40" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P40" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R40" t="n">
         <v>26.81959463117078</v>
@@ -34085,7 +34085,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I41" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J41" t="n">
         <v>112.8595291536268</v>
@@ -34137,13 +34137,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L41" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M41" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N41" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O41" t="n">
         <v>224.0452553667434</v>
@@ -34155,13 +34155,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R41" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S41" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T41" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U41" t="n">
         <v>0.1063787370334189</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H42" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I42" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J42" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K42" t="n">
         <v>114.8868877226589</v>
@@ -34231,10 +34231,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R42" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S42" t="n">
         <v>13.21525299468887</v>
@@ -34243,7 +34243,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H43" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I43" t="n">
         <v>17.9375695592222</v>
@@ -34292,25 +34292,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K43" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L43" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M43" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N43" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O43" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P43" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R43" t="n">
         <v>26.81959463117078</v>
@@ -34322,7 +34322,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J11" t="n">
         <v>112.8595291536268</v>
@@ -35418,10 +35418,10 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N11" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O11" t="n">
         <v>224.0452553667435</v>
@@ -35430,10 +35430,10 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q11" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R11" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O12" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P12" t="n">
-        <v>135.8596658518925</v>
+        <v>152.6643685683466</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.6232914195057</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R12" t="n">
         <v>162.5299238926254</v>
@@ -35573,25 +35573,25 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L13" t="n">
-        <v>88.67926619453442</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="M13" t="n">
-        <v>271.4837599719071</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="N13" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O13" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P13" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q13" t="n">
-        <v>219.8381709871103</v>
+        <v>89.67486837585739</v>
       </c>
       <c r="R13" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>50.85195676437966</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J14" t="n">
         <v>112.8595291536268</v>
@@ -35652,13 +35652,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L14" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M14" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N14" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O14" t="n">
         <v>224.0452553667433</v>
@@ -35667,7 +35667,7 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q14" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R14" t="n">
         <v>83.52891675219371</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>50.82274801921518</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J15" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K15" t="n">
-        <v>131.6915904391129</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L15" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M15" t="n">
         <v>180.2704050774914</v>
@@ -35740,13 +35740,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O15" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P15" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195059</v>
       </c>
       <c r="R15" t="n">
         <v>162.5299238926254</v>
@@ -35807,16 +35807,16 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K16" t="n">
-        <v>346.8331089915196</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L16" t="n">
-        <v>266.6631737149098</v>
+        <v>266.66317371491</v>
       </c>
       <c r="M16" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N16" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O16" t="n">
         <v>84.30874592103589</v>
@@ -35825,10 +35825,10 @@
         <v>418.1856318563248</v>
       </c>
       <c r="Q16" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R16" t="n">
-        <v>5.615951549488937</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J17" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K17" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M17" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N17" t="n">
         <v>237.2677999464441</v>
       </c>
       <c r="O17" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P17" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q17" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R17" t="n">
         <v>83.52891675219394</v>
@@ -35965,7 +35965,7 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K18" t="n">
-        <v>131.6915904391128</v>
+        <v>131.6915904391124</v>
       </c>
       <c r="L18" t="n">
         <v>154.4795984656607</v>
@@ -35986,7 +35986,7 @@
         <v>90.818588703052</v>
       </c>
       <c r="R18" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,25 +36047,25 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L19" t="n">
-        <v>266.6631737149099</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M19" t="n">
-        <v>93.49985245153209</v>
+        <v>111.8690860922709</v>
       </c>
       <c r="N19" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O19" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P19" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="Q19" t="n">
-        <v>219.8381709871103</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R19" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J20" t="n">
         <v>112.8595291536268</v>
@@ -36126,16 +36126,16 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N20" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O20" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P20" t="n">
         <v>191.2174419853368</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>24.49580543289438</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J21" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K21" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L21" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M21" t="n">
-        <v>342.2280406214904</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N21" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O21" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P21" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q21" t="n">
-        <v>418.1856318563248</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R21" t="n">
-        <v>44.17358238319139</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,28 +36281,28 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K22" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L22" t="n">
-        <v>266.6631737149097</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M22" t="n">
-        <v>93.49985245153209</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O22" t="n">
-        <v>84.30874592103589</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P22" t="n">
-        <v>418.1856318563248</v>
+        <v>215.1406665327154</v>
       </c>
       <c r="Q22" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R22" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,10 +36354,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>50.85195676437966</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J23" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K23" t="n">
         <v>169.1471783864346</v>
@@ -36366,22 +36366,22 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M23" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N23" t="n">
-        <v>237.267799946444</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O23" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P23" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q23" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R23" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>50.82274801921518</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J24" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K24" t="n">
-        <v>131.691590439113</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L24" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M24" t="n">
         <v>180.2704050774914</v>
@@ -36451,7 +36451,7 @@
         <v>185.041626288561</v>
       </c>
       <c r="O24" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P24" t="n">
         <v>135.8596658518925</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K25" t="n">
-        <v>118.77968413605</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L25" t="n">
-        <v>418.1856318563246</v>
+        <v>266.66317371491</v>
       </c>
       <c r="M25" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N25" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O25" t="n">
-        <v>418.1856318563246</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P25" t="n">
-        <v>418.1856318563246</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R25" t="n">
-        <v>5.615951549488937</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,22 +36591,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>50.85195676437966</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J26" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K26" t="n">
-        <v>169.1471783864347</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L26" t="n">
         <v>209.8420318050158</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139915</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N26" t="n">
-        <v>237.267799946444</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O26" t="n">
         <v>224.0452553667435</v>
@@ -36615,10 +36615,10 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q26" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>50.82274801921518</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J27" t="n">
-        <v>67.2183623987233</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K27" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L27" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M27" t="n">
         <v>180.2704050774914</v>
       </c>
       <c r="N27" t="n">
-        <v>418.1856318563248</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O27" t="n">
-        <v>280.7743262717431</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P27" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195054</v>
       </c>
       <c r="R27" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.17064040570463</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K28" t="n">
-        <v>69.29931649542306</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L28" t="n">
-        <v>418.1856318563247</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M28" t="n">
+        <v>93.49985245153209</v>
+      </c>
+      <c r="N28" t="n">
+        <v>300.3716764629446</v>
+      </c>
+      <c r="O28" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="N28" t="n">
+      <c r="P28" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="O28" t="n">
-        <v>162.11615811347</v>
-      </c>
-      <c r="P28" t="n">
-        <v>72.14069692136991</v>
-      </c>
       <c r="Q28" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R28" t="n">
-        <v>5.615951549488937</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>50.85195676437966</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J29" t="n">
         <v>112.8595291536268</v>
@@ -36840,22 +36840,22 @@
         <v>209.8420318050159</v>
       </c>
       <c r="M29" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N29" t="n">
-        <v>237.267799946444</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O29" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P29" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q29" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R29" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>50.82274801921518</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J30" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K30" t="n">
-        <v>131.6915904391129</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L30" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M30" t="n">
         <v>180.2704050774914</v>
@@ -36925,16 +36925,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O30" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P30" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195054</v>
       </c>
       <c r="R30" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K31" t="n">
-        <v>346.8331089915196</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L31" t="n">
-        <v>102.6779795617747</v>
+        <v>319.1334632449605</v>
       </c>
       <c r="M31" t="n">
-        <v>93.49985245153209</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N31" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O31" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="P31" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R31" t="n">
-        <v>5.615951549488937</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J32" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K32" t="n">
         <v>169.1471783864346</v>
@@ -37077,22 +37077,22 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M32" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N32" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O32" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P32" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q32" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R32" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>50.82274801921518</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J33" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K33" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391124</v>
       </c>
       <c r="L33" t="n">
         <v>154.4795984656607</v>
@@ -37162,16 +37162,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O33" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P33" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q33" t="n">
-        <v>107.6232914195059</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R33" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.17064040570464</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K34" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L34" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M34" t="n">
-        <v>145.5775888403054</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N34" t="n">
-        <v>418.1856318563247</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O34" t="n">
-        <v>418.1856318563247</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P34" t="n">
-        <v>418.1856318563246</v>
+        <v>271.4837599719076</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R34" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,25 +37302,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J35" t="n">
-        <v>112.859529153627</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K35" t="n">
-        <v>169.1471783864347</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L35" t="n">
         <v>209.8420318050158</v>
       </c>
       <c r="M35" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N35" t="n">
         <v>237.2677999464441</v>
       </c>
       <c r="O35" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P35" t="n">
         <v>191.2174419853368</v>
@@ -37387,7 +37387,7 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K36" t="n">
-        <v>131.6915904391128</v>
+        <v>131.6915904391124</v>
       </c>
       <c r="L36" t="n">
         <v>154.4795984656607</v>
@@ -37399,7 +37399,7 @@
         <v>185.041626288561</v>
       </c>
       <c r="O36" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P36" t="n">
         <v>135.8596658518925</v>
@@ -37408,7 +37408,7 @@
         <v>90.818588703052</v>
       </c>
       <c r="R36" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K37" t="n">
-        <v>69.2993164954231</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L37" t="n">
-        <v>142.980220092159</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M37" t="n">
-        <v>418.1856318563247</v>
+        <v>111.8690860922707</v>
       </c>
       <c r="N37" t="n">
         <v>91.27663494268063</v>
       </c>
       <c r="O37" t="n">
-        <v>418.1856318563248</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P37" t="n">
         <v>418.1856318563248</v>
@@ -37487,7 +37487,7 @@
         <v>49.9464792049564</v>
       </c>
       <c r="R37" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J38" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K38" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L38" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M38" t="n">
         <v>233.4896926139916</v>
       </c>
       <c r="N38" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O38" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P38" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q38" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R38" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37636,7 +37636,7 @@
         <v>185.041626288561</v>
       </c>
       <c r="O39" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P39" t="n">
         <v>135.8596658518925</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K40" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L40" t="n">
-        <v>88.67926619453439</v>
+        <v>266.66317371491</v>
       </c>
       <c r="M40" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N40" t="n">
+        <v>91.27663494268063</v>
+      </c>
+      <c r="O40" t="n">
+        <v>84.30874592103589</v>
+      </c>
+      <c r="P40" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="O40" t="n">
-        <v>418.1856318563248</v>
-      </c>
-      <c r="P40" t="n">
-        <v>300.3716764629444</v>
-      </c>
       <c r="Q40" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R40" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J41" t="n">
         <v>112.8595291536269</v>
@@ -37788,13 +37788,13 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M41" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N41" t="n">
         <v>237.2677999464443</v>
       </c>
       <c r="O41" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P41" t="n">
         <v>191.2174419853368</v>
@@ -37803,7 +37803,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R41" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>50.8227480192152</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J42" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K42" t="n">
-        <v>131.6915904391128</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L42" t="n">
         <v>154.4795984656607</v>
@@ -37873,16 +37873,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O42" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P42" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195054</v>
       </c>
       <c r="R42" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K43" t="n">
-        <v>69.2993164954231</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L43" t="n">
-        <v>162.1161581134697</v>
+        <v>266.66317371491</v>
       </c>
       <c r="M43" t="n">
-        <v>418.1856318563247</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N43" t="n">
+        <v>91.27663494268063</v>
+      </c>
+      <c r="O43" t="n">
+        <v>84.30874592103589</v>
+      </c>
+      <c r="P43" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="O43" t="n">
-        <v>418.1856318563248</v>
-      </c>
-      <c r="P43" t="n">
-        <v>72.14069692136991</v>
-      </c>
       <c r="Q43" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R43" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>50.85195676437969</v>
       </c>
       <c r="J44" t="n">
-        <v>112.859529153627</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K44" t="n">
-        <v>169.1471783864347</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M44" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N44" t="n">
         <v>237.2677999464443</v>
       </c>
       <c r="O44" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P44" t="n">
         <v>191.2174419853368</v>
@@ -38040,7 +38040,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>50.8227480192152</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J45" t="n">
-        <v>395.0550542837863</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K45" t="n">
-        <v>131.6915904391126</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L45" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M45" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N45" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O45" t="n">
-        <v>169.2769372379901</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P45" t="n">
-        <v>135.8596658518925</v>
+        <v>153.1340173001362</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.818588703052</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R45" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.17064040570466</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K46" t="n">
         <v>346.8331089915197</v>
       </c>
       <c r="L46" t="n">
-        <v>354.1174011539903</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M46" t="n">
-        <v>93.49985245153209</v>
+        <v>271.4837599719077</v>
       </c>
       <c r="N46" t="n">
         <v>91.27663494268063</v>
@@ -38195,7 +38195,7 @@
         <v>418.1856318563248</v>
       </c>
       <c r="Q46" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R46" t="n">
         <v>5.615951549488948</v>
